--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1614,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v2.2.0.rc1)</v>
+        <v>ONC Certification (g)(10) Test Kit (v2.2.0)</v>
       </c>
     </row>
     <row r="2" spans="3:59" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1614,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v2.2.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v2.2.1)</v>
       </c>
     </row>
     <row r="2" spans="3:59" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -12153,32 +12153,24 @@
       </c>
       <c r="J25" s="158"/>
     </row>
-    <row r="26" spans="3:10" s="157" customFormat="1" ht="100" customHeight="1">
+    <row r="26" spans="3:10" s="157" customFormat="1" ht="60" customHeight="1">
       <c r="C26" s="157" t="str">
         <v xml:space="preserve">AUTH-PATIENT-13 </v>
       </c>
       <c r="D26" s="158" t="str">
-        <v xml:space="preserve">[Both] The health IT developer demonstrates the ability of
-the Health IT Module to return an error response if the following
-parameters provided by an application to the Health IT Module in
-step 8 of this section do not match the parameters originally
-provided to an application by the Health IT Module in step 2 of
-this section according to the implementation specification
-adopted in § 170.215(a)(3):
-* “launch”; and
-* “aud”.
+        <v xml:space="preserve">[Both] The health IT developer demonstrates the ability of the Health
+IT Module to return an error response if the "aud" parameter provided
+by an application to the Health IT Module in Step 8, is not a valid
+FHIR® resource server associated with the Health IT Module's
+authorization server. 
 </v>
       </c>
       <c r="E26" s="158" t="str">
-        <v xml:space="preserve">[Both] The tester verifies the ability of the Health IT
-Module to return an error response if the following parameters
-provided by an application to the Health IT Module in step 8 of
-this section do not match the parameters originally provided to an
-application by the Health IT Module in step 2 of this section
-according to the implementation specification adopted in §
-170.215(a)(3):
-* “launch”; and
-* “aud”.
+        <v xml:space="preserve">[Both] The tester verifies the ability of the Health IT Module to
+return an error response if the "aud" parameter provided by an
+application to the Health IT Module in Step 8, is not a valid FHIR®
+resource server associated with the Health IT Module's authorization
+server.
 </v>
       </c>
       <c r="F26" s="157" t="str">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1596,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v2.2.1)</v>
+        <v>ONC Certification (g)(10) Test Kit (v2.2.2)</v>
       </c>
     </row>
     <row r="2" spans="3:58" s="3" customFormat="1" ht="20" customHeight="1">
@@ -12162,7 +12162,7 @@
 IT Module to return an error response if the "aud" parameter provided
 by an application to the Health IT Module in Step 8, is not a valid
 FHIR® resource server associated with the Health IT Module's
-authorization server. 
+authorization server.
 </v>
       </c>
       <c r="E26" s="158" t="str">
@@ -17238,7 +17238,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:6" s="157" customFormat="1" ht="170" customHeight="1">
+    <row r="164" spans="1:6" s="157" customFormat="1" ht="160" customHeight="1">
       <c r="A164" s="158" t="str">
         <v/>
       </c>
@@ -17264,8 +17264,7 @@
 * Device.serialNumber
 * Device.type
 * Device.udiCarrier
-* Device.udiCarrier.carrierAIDC
-* Device.udiCarrier.carrierHRF
+* Device.udiCarrier.carrierAIDC or Device.udiCarrier.carrierHRF
 * Device.udiCarrier.deviceIdentifier</v>
       </c>
       <c r="F164" s="158" t="str">
@@ -17973,7 +17972,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:6" s="157" customFormat="1" ht="230" customHeight="1">
+    <row r="195" spans="1:6" s="157" customFormat="1" ht="220" customHeight="1">
       <c r="A195" s="158" t="str">
         <v/>
       </c>
@@ -17996,8 +17995,7 @@
 * DocumentReference.content
 * DocumentReference.content.attachment
 * DocumentReference.content.attachment.contentType
-* DocumentReference.content.attachment.data
-* DocumentReference.content.attachment.url
+* DocumentReference.content.attachment.data or DocumentReference.content.attachment.url
 * DocumentReference.content.format
 * DocumentReference.context
 * DocumentReference.context.encounter

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1596,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v2.2.2)</v>
+        <v>ONC Certification (g)(10) Test Kit (v2.3.0)</v>
       </c>
     </row>
     <row r="2" spans="3:58" s="3" customFormat="1" ht="20" customHeight="1">
@@ -1759,7 +1759,7 @@
         <v>5.1 Bulk Data Authorization</v>
       </c>
       <c r="AU3" s="17" t="str">
-        <v>5.2 Group Compartment Export Tests</v>
+        <v>5.2 Group Compartment Export Tests STU1</v>
       </c>
       <c r="AV3" s="17" t="str">
         <v>5.3 Group Compartment Export Validation Tests</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="367" spans="2:2" customFormat="false">
       <c r="B367" s="0" t="str">
-        <v>5.2: Group Compartment Export Tests</v>
+        <v>5.2: Group Compartment Export Tests STU1</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="157" customFormat="1" ht="60" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1759,7 +1759,7 @@
         <v>5.1 Bulk Data Authorization</v>
       </c>
       <c r="AU3" s="17" t="str">
-        <v>5.2 Group Compartment Export Tests STU1</v>
+        <v>5.2 Group Compartment Export Tests</v>
       </c>
       <c r="AV3" s="17" t="str">
         <v>5.3 Group Compartment Export Validation Tests</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="367" spans="2:2" customFormat="false">
       <c r="B367" s="0" t="str">
-        <v>5.2: Group Compartment Export Tests STU1</v>
+        <v>5.2: Group Compartment Export Tests</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="157" customFormat="1" ht="60" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -1596,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v2.2.2)</v>
+        <v>ONC Certification (g)(10) Test Kit (v2.3.0)</v>
       </c>
     </row>
     <row r="2" spans="3:58" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -35659,7 +35659,7 @@
         <v>yes</v>
       </c>
       <c r="H46" s="351" t="str">
-        <v>1.6.05, 3.6.05</v>
+        <v>1.6.06, 3.6.06</v>
       </c>
       <c r="I46" s="351"/>
       <c r="J46" s="351"/>
@@ -37965,7 +37965,7 @@
         <v>AUT-PAT-20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+    <row r="49" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="351" t="str">
         <v/>
       </c>
@@ -37976,36 +37976,36 @@
         <v>1.6.05</v>
       </c>
       <c r="D49" s="351" t="str">
+        <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
+      </c>
+      <c r="E49" s="351" t="str">
+        <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
+the app was launched in the context of this FHIR Patient.</v>
+      </c>
+      <c r="F49" s="351" t="str">
+        <v>AUT-PAT-20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A50" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B50" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C50" s="351" t="str">
+        <v>1.6.06</v>
+      </c>
+      <c r="D50" s="351" t="str">
         <v>Refresh token exchange fails when supplied an invalid refresh token</v>
       </c>
-      <c r="E49" s="351" t="str">
+      <c r="E50" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization server
 returns an error response.
 [OAuth 2.0 RFC (6749)](https://www.rfc-editor.org/rfc/rfc6749#section-6)</v>
       </c>
-      <c r="F49" s="351" t="str">
-        <v>AUT-PAT-20, AUT-PAT-23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B50" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C50" s="351" t="str">
-        <v>1.6.06</v>
-      </c>
-      <c r="D50" s="351" t="str">
-        <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
-      </c>
-      <c r="E50" s="351" t="str">
-        <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
-the app was launched in the context of this FHIR Patient.</v>
-      </c>
       <c r="F50" s="351" t="str">
-        <v/>
+        <v>AUT-PAT-23</v>
       </c>
     </row>
     <row r="51" spans="2:2" customFormat="false">
@@ -40273,7 +40273,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+    <row r="163" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
       <c r="A163" s="351" t="str">
         <v/>
       </c>
@@ -40284,36 +40284,36 @@
         <v>3.6.05</v>
       </c>
       <c r="D163" s="351" t="str">
+        <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
+      </c>
+      <c r="E163" s="351" t="str">
+        <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
+the app was launched in the context of this FHIR Patient.</v>
+      </c>
+      <c r="F163" s="351" t="str">
+        <v>AUT-PAT-20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A164" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B164" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C164" s="351" t="str">
+        <v>3.6.06</v>
+      </c>
+      <c r="D164" s="351" t="str">
         <v>Refresh token exchange fails when supplied an invalid refresh token</v>
       </c>
-      <c r="E163" s="351" t="str">
+      <c r="E164" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization server
 returns an error response.
 [OAuth 2.0 RFC (6749)](https://www.rfc-editor.org/rfc/rfc6749#section-6)</v>
       </c>
-      <c r="F163" s="351" t="str">
-        <v>AUT-PAT-20, AUT-PAT-23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A164" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B164" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C164" s="351" t="str">
-        <v>3.6.06</v>
-      </c>
-      <c r="D164" s="351" t="str">
-        <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
-      </c>
-      <c r="E164" s="351" t="str">
-        <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
-the app was launched in the context of this FHIR Patient.</v>
-      </c>
       <c r="F164" s="351" t="str">
-        <v/>
+        <v>AUT-PAT-23</v>
       </c>
     </row>
     <row r="166" spans="1:1" customFormat="false">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -34129,11 +34129,11 @@
       <c r="EK74" s="1" t="str">
         <v/>
       </c>
-      <c r="EL74" s="346" t="str">
+      <c r="EL74" s="345" t="str">
         <v/>
       </c>
       <c r="EN74" s="1" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
   </sheetData>
@@ -37008,10 +37008,10 @@
         <v/>
       </c>
       <c r="G103" s="350" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="H103" s="351" t="str">
-        <v/>
+        <v>9.10.14</v>
       </c>
       <c r="I103" s="351"/>
       <c r="J103" s="351"/>
@@ -37022,7 +37022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1195"/>
+  <dimension ref="A1:F1196"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -64062,6 +64062,28 @@
         <v>AUT-PAT-21</v>
       </c>
     </row>
+    <row r="1196" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1196" s="351" t="str">
+        <v>9.10.14</v>
+      </c>
+      <c r="D1196" s="351" t="str">
+        <v>Health IT developer demonstrates the public location of its base URLs</v>
+      </c>
+      <c r="E1196" s="351" t="str">
+        <v xml:space="preserve">To fulfill the API Maintenance of Certification requirement at §
+170.404(b)(2), the health IT developer demonstrates the public location
+of its certified API technology service base URLs.</v>
+      </c>
+      <c r="F1196" s="351" t="str">
+        <v>API-DOC-3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.0.1)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.1.0.dev)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">
@@ -5025,7 +5025,7 @@
       <c r="EK6" s="318" t="str">
         <v/>
       </c>
-      <c r="EL6" s="346" t="str">
+      <c r="EL6" s="345" t="str">
         <v/>
       </c>
       <c r="EN6" s="1" t="str">
@@ -34324,7 +34324,7 @@
         <v>yes</v>
       </c>
       <c r="H10" s="351" t="str">
-        <v>1.3.01, 1.3.04, 1.4.01, 1.4.04, 2.1.01, 2.1.04, 2.2.01, 2.2.04, 3.3.03, 3.3.06, 3.4.03, 3.4.06, 4.1.01, 5.1.01, 6.1.01, 7.1.01, 7.2.01, 7.3.01, 8.1.01, 8.2.01, 8.3.01, 9.1.01, 9.1.04, 9.2.01, 9.2.04, 9.8.03, 9.8.06, 9.9.03, 9.9.06</v>
+        <v>1.3.01, 1.3.04, 1.4.01, 1.4.04, 2.1.01, 2.1.04, 2.2.01, 2.2.04, 3.3.03, 3.3.06, 3.4.03, 3.4.06, 4.1.01, 5.1.01, 6.1.01, 7.1.01, 7.2.01, 7.3.01, 8.1.01, 8.2.01, 8.3.01, 9.1.01, 9.1.04, 9.2.01, 9.2.04, 9.8.03, 9.8.06, 9.9.03, 9.9.06, 9.10.15</v>
       </c>
       <c r="I10" s="351" t="str">
         <v xml:space="preserve">Inferno tests that all endpoints provided support at least TLS
@@ -37022,7 +37022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1196"/>
+  <dimension ref="A1:F1197"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -64084,6 +64084,30 @@
         <v>API-DOC-3</v>
       </c>
     </row>
+    <row r="1197" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1197" s="351" t="str">
+        <v>9.10.15</v>
+      </c>
+      <c r="D1197" s="351" t="str">
+        <v>TLS version 1.2 or above must be enforced</v>
+      </c>
+      <c r="E1197" s="351" t="str">
+        <v xml:space="preserve">If TLS connections below version 1.2 have been allowed in any previous
+tests, Health IT developers must document how the Health IT Module
+enforces TLS version 1.2 or above.
+If no TLS connections below version 1.2 have been allowed, no
+documentation is necessary and this test will automatically pass.</v>
+      </c>
+      <c r="F1197" s="351" t="str">
+        <v>SEC-CNN-1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.1.0.dev)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.3.0)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">
@@ -37022,7 +37022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1197"/>
+  <dimension ref="A1:F1199"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -42193,7 +42193,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="350" customFormat="1" ht="220" customHeight="1">
+    <row r="247" spans="1:6" s="350" customFormat="1" ht="210" customHeight="1">
       <c r="A247" s="351" t="str">
         <v/>
       </c>
@@ -42221,7 +42221,6 @@
 * DocumentReference.context
 * DocumentReference.context.encounter
 * DocumentReference.context.period
-* DocumentReference.custodian
 * DocumentReference.date
 * DocumentReference.identifier
 * DocumentReference.status
@@ -42232,7 +42231,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="248" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
       <c r="A248" s="351" t="str">
         <v/>
       </c>
@@ -42251,7 +42250,6 @@
 external references include:
 * DocumentReference.author
 * DocumentReference.context.encounter
-* DocumentReference.custodian
 * DocumentReference.subject</v>
       </c>
       <c r="F248" s="351" t="str">
@@ -46446,7 +46444,7 @@
 * Patient.extension:birthsex
 * Patient.extension:ethnicity
 * Patient.extension:race
-* Patient.name.period.end or Patient.name.use
+* Patient.name.period.end
 * Patient.name.suffix
 * Patient.telecom
 * Patient.telecom.system
@@ -52681,7 +52679,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="696" spans="1:6" s="350" customFormat="1" ht="360" customHeight="1">
+    <row r="696" spans="1:6" s="350" customFormat="1" ht="370" customHeight="1">
       <c r="A696" s="351" t="str">
         <v/>
       </c>
@@ -52721,8 +52719,9 @@
 * Patient.extension:ethnicity
 * Patient.extension:genderIdentity
 * Patient.extension:race
-* Patient.name.period.end or Patient.name.use
+* Patient.name.period.end
 * Patient.name.suffix
+* Patient.name.use
 * Patient.telecom
 * Patient.telecom.system
 * Patient.telecom.use
@@ -63545,53 +63544,57 @@
         <v>AUT-PAT-19</v>
       </c>
     </row>
-    <row r="1171" spans="2:2" customFormat="false">
-      <c r="B1171" s="0" t="str">
+    <row r="1171" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1171" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1171" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1171" s="351" t="str">
+        <v>9.8.11</v>
+      </c>
+      <c r="D1171" s="351" t="str">
+        <v>Patient-level scopes were granted</v>
+      </c>
+      <c r="E1171" s="351" t="str">
+        <v xml:space="preserve">Systems are required to support the `permission-patient` capability as
+part of the [Clinician Access for EHR Launch Capability
+Set.](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
+This test verifies that systems are capable of granting patient-level
+scopes during an EHR Launch.</v>
+      </c>
+      <c r="F1171" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" customFormat="false">
+      <c r="B1172" s="0" t="str">
         <v>9.9: EHR Launch with Patient Scopes</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1172" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1172" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1172" s="351" t="str">
+    <row r="1173" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1173" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1173" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1173" s="351" t="str">
         <v>9.9.01</v>
       </c>
-      <c r="D1172" s="351" t="str">
+      <c r="D1173" s="351" t="str">
         <v>EHR server redirects client browser to Inferno app launch URI</v>
       </c>
-      <c r="E1172" s="351" t="str">
+      <c r="E1173" s="351" t="str">
         <v xml:space="preserve">Client browser sent from EHR server to app launch URI of client app as
 described in SMART EHR Launch Sequence.</v>
       </c>
-      <c r="F1172" s="351" t="str">
-        <v>AUT-PAT-29</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1173" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1173" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1173" s="351" t="str">
-        <v>9.9.02</v>
-      </c>
-      <c r="D1173" s="351" t="str">
-        <v>EHR server sends launch parameter</v>
-      </c>
-      <c r="E1173" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1173" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1174" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1174" s="351" t="str">
         <v/>
       </c>
@@ -63599,34 +63602,54 @@
         <v/>
       </c>
       <c r="C1174" s="351" t="str">
+        <v>9.9.02</v>
+      </c>
+      <c r="D1174" s="351" t="str">
+        <v>EHR server sends launch parameter</v>
+      </c>
+      <c r="E1174" s="351" t="str">
+        <v>Code is a required querystring parameter on the redirect.</v>
+      </c>
+      <c r="F1174" s="351" t="str">
+        <v>AUT-PAT-29</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1175" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1175" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1175" s="351" t="str">
         <v>9.9.03</v>
       </c>
-      <c r="D1174" s="351" t="str">
+      <c r="D1175" s="351" t="str">
         <v>OAuth 2.0 authorize endpoint secured by transport layer security</v>
       </c>
-      <c r="E1174" s="351" t="str">
+      <c r="E1175" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1174" s="351" t="str">
+      <c r="F1175" s="351" t="str">
         <v>SEC-CNN-1, AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1175" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1175" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1175" s="351" t="str">
+    <row r="1176" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1176" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1176" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1176" s="351" t="str">
         <v>9.9.04</v>
       </c>
-      <c r="D1175" s="351" t="str">
+      <c r="D1176" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1175" s="351" t="str">
+      <c r="E1176" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63634,31 +63657,11 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1175" s="351" t="str">
-        <v>AUT-PAT-29</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1176" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1176" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1176" s="351" t="str">
-        <v>9.9.05</v>
-      </c>
-      <c r="D1176" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1176" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1176" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1177" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1177" s="351" t="str">
         <v/>
       </c>
@@ -63666,340 +63669,384 @@
         <v/>
       </c>
       <c r="C1177" s="351" t="str">
+        <v>9.9.05</v>
+      </c>
+      <c r="D1177" s="351" t="str">
+        <v>OAuth server sends code parameter</v>
+      </c>
+      <c r="E1177" s="351" t="str">
+        <v>Code is a required querystring parameter on the redirect.</v>
+      </c>
+      <c r="F1177" s="351" t="str">
+        <v>AUT-PAT-29</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1178" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1178" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1178" s="351" t="str">
         <v>9.9.06</v>
       </c>
-      <c r="D1177" s="351" t="str">
+      <c r="D1178" s="351" t="str">
         <v>OAuth 2.0 token endpoint secured by transport layer security</v>
       </c>
-      <c r="E1177" s="351" t="str">
+      <c r="E1178" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1177" s="351" t="str">
+      <c r="F1178" s="351" t="str">
         <v>SEC-CNN-1, AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1178" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1178" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1178" s="351" t="str">
+    <row r="1179" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1179" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1179" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1179" s="351" t="str">
         <v>9.9.07</v>
       </c>
-      <c r="D1178" s="351" t="str">
+      <c r="D1179" s="351" t="str">
         <v>OAuth token exchange request succeeds when supplied correct information</v>
       </c>
-      <c r="E1178" s="351" t="str">
+      <c r="E1179" s="351" t="str">
         <v xml:space="preserve">After obtaining an authorization code, the app trades the code for an
 access token via HTTP POST to the EHR authorization server's token
 endpoint URL, using content-type application/x-www-form-urlencoded, as
 described in section [4.1.3 of
 RFC6749](https://tools.ietf.org/html/rfc6749#section-4.1.3).</v>
       </c>
-      <c r="F1178" s="351" t="str">
+      <c r="F1179" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1179" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1179" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1179" s="351" t="str">
+    <row r="1180" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1180" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1180" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1180" s="351" t="str">
         <v>9.9.08</v>
       </c>
-      <c r="D1179" s="351" t="str">
+      <c r="D1180" s="351" t="str">
         <v>Token exchange response body contains required information encoded in JSON</v>
       </c>
-      <c r="E1179" s="351" t="str">
+      <c r="E1180" s="351" t="str">
         <v xml:space="preserve">The EHR authorization server shall return a JSON structure that includes
 an access token or a message indicating that the authorization request
 has been denied. `access_token`, `token_type`, and `scope` are required.
 `token_type` must be Bearer. `expires_in` is required for token
 refreshes.</v>
       </c>
-      <c r="F1179" s="351" t="str">
+      <c r="F1180" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1180" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1180" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1180" s="351" t="str">
+    <row r="1181" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1181" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1181" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1181" s="351" t="str">
         <v>9.9.09</v>
       </c>
-      <c r="D1180" s="351" t="str">
+      <c r="D1181" s="351" t="str">
         <v>Response includes correct HTTP Cache-Control and Pragma headers</v>
       </c>
-      <c r="E1180" s="351" t="str">
+      <c r="E1181" s="351" t="str">
         <v xml:space="preserve">The authorization servers response must include the HTTP Cache-Control
 response header field with a value of no-store, as well as the Pragma
 response header field with a value of no-cache.</v>
       </c>
-      <c r="F1180" s="351" t="str">
+      <c r="F1181" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1181" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1181" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1181" s="351" t="str">
+    <row r="1182" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1182" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1182" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1182" s="351" t="str">
         <v>9.9.10</v>
       </c>
-      <c r="D1181" s="351" t="str">
+      <c r="D1182" s="351" t="str">
         <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
       </c>
-      <c r="E1181" s="351" t="str">
+      <c r="E1182" s="351" t="str">
         <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
 the app was launched in the context of this FHIR Patient.</v>
       </c>
-      <c r="F1181" s="351" t="str">
+      <c r="F1182" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-19</v>
       </c>
     </row>
-    <row r="1182" spans="2:2" customFormat="false">
-      <c r="B1182" s="0" t="str">
+    <row r="1183" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1183" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1183" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1183" s="351" t="str">
+        <v>9.9.11</v>
+      </c>
+      <c r="D1183" s="351" t="str">
+        <v>Patient-level scopes were granted</v>
+      </c>
+      <c r="E1183" s="351" t="str">
+        <v xml:space="preserve">Systems are required to support the `permission-patient` capability as
+part of the [Clinician Access for EHR Launch Capability
+Set.](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
+This test verifies that systems are capable of granting patient-level
+scopes during an EHR Launch.</v>
+      </c>
+      <c r="F1183" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1184" spans="2:2" customFormat="false">
+      <c r="B1184" s="0" t="str">
         <v>9.10: Visual Inspection and Attestation</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1183" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1183" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1183" s="351" t="str">
+    <row r="1185" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1185" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1185" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1185" s="351" t="str">
         <v>9.10.01</v>
       </c>
-      <c r="D1183" s="351" t="str">
+      <c r="D1185" s="351" t="str">
         <v>Health IT Module demonstrated support for application registration for single patients.</v>
       </c>
-      <c r="E1183" s="351" t="str">
+      <c r="E1185" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated support for application registration for
 single patients.</v>
       </c>
-      <c r="F1183" s="351" t="str">
+      <c r="F1185" s="351" t="str">
         <v>APP-REG-1</v>
       </c>
     </row>
-    <row r="1184" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1184" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1184" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1184" s="351" t="str">
+    <row r="1186" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1186" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1186" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1186" s="351" t="str">
         <v>9.10.02</v>
       </c>
-      <c r="D1184" s="351" t="str">
+      <c r="D1186" s="351" t="str">
         <v>Health IT Module demonstrated support for application registration for multiple patients.</v>
       </c>
-      <c r="E1184" s="351" t="str">
+      <c r="E1186" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated support for supports application
 registration for multiple patients.</v>
       </c>
-      <c r="F1184" s="351" t="str">
+      <c r="F1186" s="351" t="str">
         <v>APP-REG-2</v>
       </c>
     </row>
-    <row r="1185" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1185" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1185" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1185" s="351" t="str">
+    <row r="1187" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1187" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1187" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1187" s="351" t="str">
         <v>9.10.03</v>
       </c>
-      <c r="D1185" s="351" t="str">
+      <c r="D1187" s="351" t="str">
         <v>Health IT Module demonstrated a graphical user interface for user to authorize FHIR resources.</v>
       </c>
-      <c r="E1185" s="351" t="str">
+      <c r="E1187" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated a graphical user interface for user to
 authorize FHIR resources</v>
       </c>
-      <c r="F1185" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1186" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1186" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1186" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1186" s="351" t="str">
+      <c r="F1187" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1188" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1188" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1188" s="351" t="str">
         <v>9.10.04</v>
       </c>
-      <c r="D1186" s="351" t="str">
+      <c r="D1188" s="351" t="str">
         <v>Health IT Module informed patient when "offline_access" scope is being granted during authorization.</v>
       </c>
-      <c r="E1186" s="351" t="str">
+      <c r="E1188" s="351" t="str">
         <v xml:space="preserve">Health IT Module informed patient when "offline_access" scope is being
 granted during authorization.</v>
       </c>
-      <c r="F1186" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1187" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1187" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1187" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1187" s="351" t="str">
+      <c r="F1188" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1189" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1189" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1189" s="351" t="str">
         <v>9.10.05</v>
       </c>
-      <c r="D1187" s="351" t="str">
+      <c r="D1189" s="351" t="str">
         <v>Health IT Module attested that it is capable of issuing refresh tokens that are valid for a period of no shorter than three months.</v>
       </c>
-      <c r="E1187" s="351" t="str">
+      <c r="E1189" s="351" t="str">
         <v xml:space="preserve">Health IT Module attested that it is capable of issuing refresh tokens
 that are valid for a period of no shorter than three months.</v>
       </c>
-      <c r="F1187" s="351" t="str">
+      <c r="F1189" s="351" t="str">
         <v>AUT-PAT-22</v>
       </c>
     </row>
-    <row r="1188" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1188" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1188" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1188" s="351" t="str">
+    <row r="1190" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1190" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1190" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1190" s="351" t="str">
         <v>9.10.06</v>
       </c>
-      <c r="D1188" s="351" t="str">
+      <c r="D1190" s="351" t="str">
         <v>Health IT developer demonstrated the ability of the Health IT Module / authorization server to validate token it has issued.</v>
       </c>
-      <c r="E1188" s="351" t="str">
+      <c r="E1190" s="351" t="str">
         <v xml:space="preserve">Health IT developer demonstrated the ability of the Health IT Module /
 authorization server to validate token it has issued</v>
       </c>
-      <c r="F1188" s="351" t="str">
+      <c r="F1190" s="351" t="str">
         <v>TOK-INTRO-1</v>
       </c>
     </row>
-    <row r="1189" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1189" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1189" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1189" s="351" t="str">
+    <row r="1191" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1191" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1191" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1191" s="351" t="str">
         <v>9.10.07</v>
       </c>
-      <c r="D1189" s="351" t="str">
+      <c r="D1191" s="351" t="str">
         <v>Tester verifies that all information is accurate and without omission.</v>
       </c>
-      <c r="E1189" s="351" t="str">
+      <c r="E1191" s="351" t="str">
         <v>Tester verifies that all information is accurate and without omission.</v>
       </c>
-      <c r="F1189" s="351" t="str">
+      <c r="F1191" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1190" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1190" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1190" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1190" s="351" t="str">
+    <row r="1192" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1192" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1192" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1192" s="351" t="str">
         <v>9.10.08</v>
       </c>
-      <c r="D1190" s="351" t="str">
+      <c r="D1192" s="351" t="str">
         <v>Information returned no greater than scopes pre-authorized for multi-patient queries.</v>
       </c>
-      <c r="E1190" s="351" t="str">
+      <c r="E1192" s="351" t="str">
         <v xml:space="preserve">Information returned no greater than scopes pre-authorized for
 multi-patient queries.</v>
       </c>
-      <c r="F1190" s="351" t="str">
+      <c r="F1192" s="351" t="str">
         <v>AUT-SYS-8</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1191" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1191" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1191" s="351" t="str">
+    <row r="1193" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1193" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1193" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1193" s="351" t="str">
         <v>9.10.09</v>
       </c>
-      <c r="D1191" s="351" t="str">
+      <c r="D1193" s="351" t="str">
         <v>Health IT developer demonstrated the documentation is available at a publicly accessible URL.</v>
       </c>
-      <c r="E1191" s="351" t="str">
+      <c r="E1193" s="351" t="str">
         <v xml:space="preserve">Health IT developer demonstrated the documentation is available at a
 publicly accessible URL.</v>
       </c>
-      <c r="F1191" s="351" t="str">
+      <c r="F1193" s="351" t="str">
         <v>API-DOC-1, API-DOC-2</v>
       </c>
     </row>
-    <row r="1192" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1192" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1192" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1192" s="351" t="str">
+    <row r="1194" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1194" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1194" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1194" s="351" t="str">
         <v>9.10.10</v>
       </c>
-      <c r="D1192" s="351" t="str">
+      <c r="D1194" s="351" t="str">
         <v>Health IT developer confirms the Health IT module does not cache the JWK Set received via a TLS-protected URL for longer than the cache-control header received by an application indicates.</v>
       </c>
-      <c r="E1192" s="351" t="str">
+      <c r="E1194" s="351" t="str">
         <v xml:space="preserve">The Health IT developer confirms the Health IT module does not cache the
 JWK Set received via a TLS-protected URL for longer than the
 cache-control header indicates.</v>
       </c>
-      <c r="F1192" s="351" t="str">
+      <c r="F1194" s="351" t="str">
         <v>AUT-SYS-5</v>
       </c>
     </row>
-    <row r="1193" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1193" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1193" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1193" s="351" t="str">
+    <row r="1195" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1195" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1195" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1195" s="351" t="str">
         <v>9.10.11</v>
       </c>
-      <c r="D1193" s="351" t="str">
+      <c r="D1195" s="351" t="str">
         <v>Health IT developer demonstrates support for the Patient Demographics Suffix USCDI v1 element.</v>
       </c>
-      <c r="E1193" s="351" t="str">
+      <c r="E1195" s="351" t="str">
         <v xml:space="preserve">ONC certification criteria states that all USCDI v1 data classes and
 elements need to be supported, including Patient Demographics -
 Suffix.However, US Core v3.1.1 does not tag the relevant element
@@ -64007,24 +64054,24 @@
 demonstrate support for this USCDI v1 element as described in the US
 Core Patient Profile implementation guidance.</v>
       </c>
-      <c r="F1193" s="351" t="str">
+      <c r="F1195" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1194" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1194" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1194" s="351" t="str">
+    <row r="1196" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1196" s="351" t="str">
         <v>9.10.12</v>
       </c>
-      <c r="D1194" s="351" t="str">
+      <c r="D1196" s="351" t="str">
         <v>Health IT developer demonstrates support for the Patient Demographics Previous Name USCDI v1 element.</v>
       </c>
-      <c r="E1194" s="351" t="str">
+      <c r="E1196" s="351" t="str">
         <v xml:space="preserve">ONC certification criteria states that all USCDI v1 data classes and
 elements need to be supported, including Patient Demographics - Previous
 Name. However, US Core v3.1.1 does not tag the relevant element
@@ -64032,24 +64079,24 @@
 demonstrate support for this USCDI v1 element as described in the US
 Core Patient Profile implementation guidance.</v>
       </c>
-      <c r="F1194" s="351" t="str">
+      <c r="F1196" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1195" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1195" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1195" s="351" t="str">
+    <row r="1197" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1197" s="351" t="str">
         <v>9.10.13</v>
       </c>
-      <c r="D1195" s="351" t="str">
+      <c r="D1197" s="351" t="str">
         <v>Health IT developer demonstrates support for issuing refresh tokens to native applications.</v>
       </c>
-      <c r="E1195" s="351" t="str">
+      <c r="E1197" s="351" t="str">
         <v xml:space="preserve">The health IT developer demonstrates the ability of the Health IT Module
 to grant a refresh token valid for a period of no less than three months
 to native applications capable of storing a refresh token.
@@ -64058,53 +64105,53 @@
 OAuth 2.0 authorization flow to ensure authorization is sufficiently
 secure for native applications.</v>
       </c>
-      <c r="F1195" s="351" t="str">
+      <c r="F1197" s="351" t="str">
         <v>AUT-PAT-21</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1196" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1196" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1196" s="351" t="str">
+    <row r="1198" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1198" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1198" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1198" s="351" t="str">
         <v>9.10.14</v>
       </c>
-      <c r="D1196" s="351" t="str">
+      <c r="D1198" s="351" t="str">
         <v>Health IT developer demonstrates the public location of its base URLs</v>
       </c>
-      <c r="E1196" s="351" t="str">
+      <c r="E1198" s="351" t="str">
         <v xml:space="preserve">To fulfill the API Maintenance of Certification requirement at §
 170.404(b)(2), the health IT developer demonstrates the public location
 of its certified API technology service base URLs.</v>
       </c>
-      <c r="F1196" s="351" t="str">
+      <c r="F1198" s="351" t="str">
         <v>API-DOC-3</v>
       </c>
     </row>
-    <row r="1197" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1197" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1197" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1197" s="351" t="str">
+    <row r="1199" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1199" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1199" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1199" s="351" t="str">
         <v>9.10.15</v>
       </c>
-      <c r="D1197" s="351" t="str">
+      <c r="D1199" s="351" t="str">
         <v>TLS version 1.2 or above must be enforced</v>
       </c>
-      <c r="E1197" s="351" t="str">
+      <c r="E1199" s="351" t="str">
         <v xml:space="preserve">If TLS connections below version 1.2 have been allowed in any previous
 tests, Health IT developers must document how the Health IT Module
 enforces TLS version 1.2 or above.
 If no TLS connections below version 1.2 have been allowed, no
 documentation is necessary and this test will automatically pass.</v>
       </c>
-      <c r="F1197" s="351" t="str">
+      <c r="F1199" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.3.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.3.1)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.3.1)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.3.2)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.3.2)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.4.0)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">
@@ -35625,7 +35625,7 @@
         <v>yes</v>
       </c>
       <c r="H45" s="351" t="str">
-        <v>9.10.05</v>
+        <v>9.10.16</v>
       </c>
       <c r="I45" s="351" t="str">
         <v xml:space="preserve">Inferno cannot verify the three month token expiration requirement
@@ -37022,7 +37022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1199"/>
+  <dimension ref="A1:F1200"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -40848,7 +40848,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="189" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A189" s="351" t="str">
         <v/>
       </c>
@@ -40859,12 +40859,14 @@
         <v>4.3.06</v>
       </c>
       <c r="D189" s="351" t="str">
-        <v>MustSupport references within AllergyIntolerance resources can be read</v>
+        <v>MustSupport references within AllergyIntolerance resources are valid</v>
       </c>
       <c r="E189" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * AllergyIntolerance.patient</v>
       </c>
       <c r="F189" s="351" t="str">
@@ -41009,7 +41011,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="196" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A196" s="351" t="str">
         <v/>
       </c>
@@ -41020,12 +41022,14 @@
         <v>4.4.06</v>
       </c>
       <c r="D196" s="351" t="str">
-        <v>MustSupport references within CarePlan resources can be read</v>
+        <v>MustSupport references within CarePlan resources are valid</v>
       </c>
       <c r="E196" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CarePlan.subject</v>
       </c>
       <c r="F196" s="351" t="str">
@@ -41168,7 +41172,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="203" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A203" s="351" t="str">
         <v/>
       </c>
@@ -41179,12 +41183,14 @@
         <v>4.5.06</v>
       </c>
       <c r="D203" s="351" t="str">
-        <v>MustSupport references within CareTeam resources can be read</v>
+        <v>MustSupport references within CareTeam resources are valid</v>
       </c>
       <c r="E203" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CareTeam.participant.member
 * CareTeam.subject</v>
       </c>
@@ -41328,7 +41334,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="210" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A210" s="351" t="str">
         <v/>
       </c>
@@ -41339,12 +41345,14 @@
         <v>4.6.06</v>
       </c>
       <c r="D210" s="351" t="str">
-        <v>MustSupport references within Condition resources can be read</v>
+        <v>MustSupport references within Condition resources are valid</v>
       </c>
       <c r="E210" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Condition.subject</v>
       </c>
       <c r="F210" s="351" t="str">
@@ -41492,7 +41500,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="217" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A217" s="351" t="str">
         <v/>
       </c>
@@ -41503,12 +41511,14 @@
         <v>4.7.06</v>
       </c>
       <c r="D217" s="351" t="str">
-        <v>MustSupport references within Device resources can be read</v>
+        <v>MustSupport references within Device resources are valid</v>
       </c>
       <c r="E217" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Device.patient</v>
       </c>
       <c r="F217" s="351" t="str">
@@ -41727,7 +41737,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="227" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A227" s="351" t="str">
         <v/>
       </c>
@@ -41738,12 +41748,14 @@
         <v>4.8.09</v>
       </c>
       <c r="D227" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E227" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.encounter
 * DiagnosticReport.performer
 * DiagnosticReport.subject</v>
@@ -41964,7 +41976,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="237" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A237" s="351" t="str">
         <v/>
       </c>
@@ -41975,12 +41987,14 @@
         <v>4.9.09</v>
       </c>
       <c r="D237" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E237" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.performer
 * DiagnosticReport.result
 * DiagnosticReport.subject</v>
@@ -42231,7 +42245,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="248" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A248" s="351" t="str">
         <v/>
       </c>
@@ -42242,12 +42256,14 @@
         <v>4.10.10</v>
       </c>
       <c r="D248" s="351" t="str">
-        <v>MustSupport references within DocumentReference resources can be read</v>
+        <v>MustSupport references within DocumentReference resources are valid</v>
       </c>
       <c r="E248" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DocumentReference.author
 * DocumentReference.context.encounter
 * DocumentReference.subject</v>
@@ -42392,7 +42408,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="255" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A255" s="351" t="str">
         <v/>
       </c>
@@ -42403,12 +42419,14 @@
         <v>4.11.06</v>
       </c>
       <c r="D255" s="351" t="str">
-        <v>MustSupport references within Goal resources can be read</v>
+        <v>MustSupport references within Goal resources are valid</v>
       </c>
       <c r="E255" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Goal.subject</v>
       </c>
       <c r="F255" s="351" t="str">
@@ -42552,7 +42570,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="262" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A262" s="351" t="str">
         <v/>
       </c>
@@ -42563,12 +42581,14 @@
         <v>4.12.06</v>
       </c>
       <c r="D262" s="351" t="str">
-        <v>MustSupport references within Immunization resources can be read</v>
+        <v>MustSupport references within Immunization resources are valid</v>
       </c>
       <c r="E262" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Immunization.patient</v>
       </c>
       <c r="F262" s="351" t="str">
@@ -42772,7 +42792,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
+    <row r="271" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
       <c r="A271" s="351" t="str">
         <v/>
       </c>
@@ -42783,12 +42803,14 @@
         <v>4.13.08</v>
       </c>
       <c r="D271" s="351" t="str">
-        <v>MustSupport references within MedicationRequest resources can be read</v>
+        <v>MustSupport references within MedicationRequest resources are valid</v>
       </c>
       <c r="E271" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * MedicationRequest.encounter
 * MedicationRequest.medication[x]
 * MedicationRequest.reported[x]
@@ -42935,7 +42957,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="278" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A278" s="351" t="str">
         <v/>
       </c>
@@ -42946,12 +42968,14 @@
         <v>4.14.06</v>
       </c>
       <c r="D278" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E278" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F278" s="351" t="str">
@@ -43152,7 +43176,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="287" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A287" s="351" t="str">
         <v/>
       </c>
@@ -43163,12 +43187,14 @@
         <v>4.15.08</v>
       </c>
       <c r="D287" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E287" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F287" s="351" t="str">
@@ -43361,7 +43387,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="296" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A296" s="351" t="str">
         <v/>
       </c>
@@ -43372,12 +43398,14 @@
         <v>4.16.08</v>
       </c>
       <c r="D296" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E296" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F296" s="351" t="str">
@@ -43578,7 +43606,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="305" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A305" s="351" t="str">
         <v/>
       </c>
@@ -43589,12 +43617,14 @@
         <v>4.17.08</v>
       </c>
       <c r="D305" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E305" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F305" s="351" t="str">
@@ -43809,7 +43839,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="314" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A314" s="351" t="str">
         <v/>
       </c>
@@ -43820,12 +43850,14 @@
         <v>4.18.08</v>
       </c>
       <c r="D314" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E314" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F314" s="351" t="str">
@@ -44026,7 +44058,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="323" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A323" s="351" t="str">
         <v/>
       </c>
@@ -44037,12 +44069,14 @@
         <v>4.19.08</v>
       </c>
       <c r="D323" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E323" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F323" s="351" t="str">
@@ -44243,7 +44277,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="332" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A332" s="351" t="str">
         <v/>
       </c>
@@ -44254,12 +44288,14 @@
         <v>4.20.08</v>
       </c>
       <c r="D332" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E332" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F332" s="351" t="str">
@@ -44460,7 +44496,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="341" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A341" s="351" t="str">
         <v/>
       </c>
@@ -44471,12 +44507,14 @@
         <v>4.21.08</v>
       </c>
       <c r="D341" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E341" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F341" s="351" t="str">
@@ -44680,7 +44718,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="350" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A350" s="351" t="str">
         <v/>
       </c>
@@ -44691,12 +44729,14 @@
         <v>4.22.08</v>
       </c>
       <c r="D350" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E350" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F350" s="351" t="str">
@@ -44897,7 +44937,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="359" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A359" s="351" t="str">
         <v/>
       </c>
@@ -44908,12 +44948,14 @@
         <v>4.23.08</v>
       </c>
       <c r="D359" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E359" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F359" s="351" t="str">
@@ -45114,7 +45156,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="368" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A368" s="351" t="str">
         <v/>
       </c>
@@ -45125,12 +45167,14 @@
         <v>4.24.08</v>
       </c>
       <c r="D368" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E368" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F368" s="351" t="str">
@@ -45331,7 +45375,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="377" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A377" s="351" t="str">
         <v/>
       </c>
@@ -45342,12 +45386,14 @@
         <v>4.25.08</v>
       </c>
       <c r="D377" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E377" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F377" s="351" t="str">
@@ -45513,7 +45559,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="385" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A385" s="351" t="str">
         <v/>
       </c>
@@ -45524,12 +45570,14 @@
         <v>4.26.07</v>
       </c>
       <c r="D385" s="351" t="str">
-        <v>MustSupport references within Procedure resources can be read</v>
+        <v>MustSupport references within Procedure resources are valid</v>
       </c>
       <c r="E385" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Procedure.subject</v>
       </c>
       <c r="F385" s="351" t="str">
@@ -45628,7 +45676,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="390" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A390" s="351" t="str">
         <v/>
       </c>
@@ -45639,12 +45687,14 @@
         <v>4.27.04</v>
       </c>
       <c r="D390" s="351" t="str">
-        <v>MustSupport references within Encounter resources can be read</v>
+        <v>MustSupport references within Encounter resources are valid</v>
       </c>
       <c r="E390" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Encounter.location.location
 * Encounter.participant.individual
 * Encounter.subject</v>
@@ -45906,7 +45956,7 @@
         <v>DAT-PAT-2, DAT-PAT-3</v>
       </c>
     </row>
-    <row r="403" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="403" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A403" s="351" t="str">
         <v/>
       </c>
@@ -45917,12 +45967,14 @@
         <v>4.30.04</v>
       </c>
       <c r="D403" s="351" t="str">
-        <v>MustSupport references within Provenance resources can be read</v>
+        <v>MustSupport references within Provenance resources are valid</v>
       </c>
       <c r="E403" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Provenance.agent.onBehalfOf
 * Provenance.agent.who
 * Provenance.target</v>
@@ -46592,7 +46644,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="435" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A435" s="351" t="str">
         <v/>
       </c>
@@ -46603,12 +46655,14 @@
         <v>5.3.06</v>
       </c>
       <c r="D435" s="351" t="str">
-        <v>MustSupport references within AllergyIntolerance resources can be read</v>
+        <v>MustSupport references within AllergyIntolerance resources are valid</v>
       </c>
       <c r="E435" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * AllergyIntolerance.patient</v>
       </c>
       <c r="F435" s="351" t="str">
@@ -46754,7 +46808,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="442" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A442" s="351" t="str">
         <v/>
       </c>
@@ -46765,12 +46819,14 @@
         <v>5.4.06</v>
       </c>
       <c r="D442" s="351" t="str">
-        <v>MustSupport references within CarePlan resources can be read</v>
+        <v>MustSupport references within CarePlan resources are valid</v>
       </c>
       <c r="E442" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CarePlan.subject</v>
       </c>
       <c r="F442" s="351" t="str">
@@ -46913,7 +46969,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="449" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="449" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A449" s="351" t="str">
         <v/>
       </c>
@@ -46924,12 +46980,14 @@
         <v>5.5.06</v>
       </c>
       <c r="D449" s="351" t="str">
-        <v>MustSupport references within CareTeam resources can be read</v>
+        <v>MustSupport references within CareTeam resources are valid</v>
       </c>
       <c r="E449" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CareTeam.participant.member
 * CareTeam.subject</v>
       </c>
@@ -47073,7 +47131,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="456" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A456" s="351" t="str">
         <v/>
       </c>
@@ -47084,12 +47142,14 @@
         <v>5.6.06</v>
       </c>
       <c r="D456" s="351" t="str">
-        <v>MustSupport references within Condition resources can be read</v>
+        <v>MustSupport references within Condition resources are valid</v>
       </c>
       <c r="E456" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Condition.subject</v>
       </c>
       <c r="F456" s="351" t="str">
@@ -47237,7 +47297,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="463" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="463" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A463" s="351" t="str">
         <v/>
       </c>
@@ -47248,12 +47308,14 @@
         <v>5.7.06</v>
       </c>
       <c r="D463" s="351" t="str">
-        <v>MustSupport references within Device resources can be read</v>
+        <v>MustSupport references within Device resources are valid</v>
       </c>
       <c r="E463" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Device.patient</v>
       </c>
       <c r="F463" s="351" t="str">
@@ -47493,7 +47555,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="474" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="474" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A474" s="351" t="str">
         <v/>
       </c>
@@ -47504,12 +47566,14 @@
         <v>5.8.09</v>
       </c>
       <c r="D474" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E474" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.performer
 * DiagnosticReport.result
 * DiagnosticReport.subject</v>
@@ -47730,7 +47794,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="484" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="484" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A484" s="351" t="str">
         <v/>
       </c>
@@ -47741,12 +47805,14 @@
         <v>5.9.09</v>
       </c>
       <c r="D484" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E484" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.encounter
 * DiagnosticReport.performer
 * DiagnosticReport.subject</v>
@@ -47997,7 +48063,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="495" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A495" s="351" t="str">
         <v/>
       </c>
@@ -48008,12 +48074,14 @@
         <v>5.10.10</v>
       </c>
       <c r="D495" s="351" t="str">
-        <v>MustSupport references within DocumentReference resources can be read</v>
+        <v>MustSupport references within DocumentReference resources are valid</v>
       </c>
       <c r="E495" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DocumentReference.author
 * DocumentReference.context.encounter
 * DocumentReference.subject</v>
@@ -48179,7 +48247,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="503" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A503" s="351" t="str">
         <v/>
       </c>
@@ -48190,12 +48258,14 @@
         <v>5.11.06</v>
       </c>
       <c r="D503" s="351" t="str">
-        <v>MustSupport references within Goal resources can be read</v>
+        <v>MustSupport references within Goal resources are valid</v>
       </c>
       <c r="E503" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Goal.subject</v>
       </c>
       <c r="F503" s="351" t="str">
@@ -48339,7 +48409,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="510" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="510" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A510" s="351" t="str">
         <v/>
       </c>
@@ -48350,12 +48420,14 @@
         <v>5.12.06</v>
       </c>
       <c r="D510" s="351" t="str">
-        <v>MustSupport references within Immunization resources can be read</v>
+        <v>MustSupport references within Immunization resources are valid</v>
       </c>
       <c r="E510" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Immunization.patient</v>
       </c>
       <c r="F510" s="351" t="str">
@@ -48560,7 +48632,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="519" spans="1:6" s="350" customFormat="1" ht="130" customHeight="1">
       <c r="A519" s="351" t="str">
         <v/>
       </c>
@@ -48571,12 +48643,14 @@
         <v>5.13.08</v>
       </c>
       <c r="D519" s="351" t="str">
-        <v>MustSupport references within MedicationRequest resources can be read</v>
+        <v>MustSupport references within MedicationRequest resources are valid</v>
       </c>
       <c r="E519" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * MedicationRequest.encounter
 * MedicationRequest.medication[x]
 * MedicationRequest.requester
@@ -48774,7 +48848,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="528" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A528" s="351" t="str">
         <v/>
       </c>
@@ -48785,12 +48859,14 @@
         <v>5.14.08</v>
       </c>
       <c r="D528" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E528" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F528" s="351" t="str">
@@ -48995,7 +49071,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="537" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="537" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A537" s="351" t="str">
         <v/>
       </c>
@@ -49006,12 +49082,14 @@
         <v>5.15.08</v>
       </c>
       <c r="D537" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E537" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F537" s="351" t="str">
@@ -49212,7 +49290,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="546" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="546" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A546" s="351" t="str">
         <v/>
       </c>
@@ -49223,12 +49301,14 @@
         <v>5.16.08</v>
       </c>
       <c r="D546" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E546" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F546" s="351" t="str">
@@ -49429,7 +49509,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="555" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="555" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A555" s="351" t="str">
         <v/>
       </c>
@@ -49440,12 +49520,14 @@
         <v>5.17.08</v>
       </c>
       <c r="D555" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E555" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F555" s="351" t="str">
@@ -49646,7 +49728,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="564" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A564" s="351" t="str">
         <v/>
       </c>
@@ -49657,12 +49739,14 @@
         <v>5.18.08</v>
       </c>
       <c r="D564" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E564" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F564" s="351" t="str">
@@ -49863,7 +49947,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="573" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="573" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A573" s="351" t="str">
         <v/>
       </c>
@@ -49874,12 +49958,14 @@
         <v>5.19.08</v>
       </c>
       <c r="D573" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E573" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F573" s="351" t="str">
@@ -50080,7 +50166,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="582" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="582" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A582" s="351" t="str">
         <v/>
       </c>
@@ -50091,12 +50177,14 @@
         <v>5.20.08</v>
       </c>
       <c r="D582" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E582" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F582" s="351" t="str">
@@ -50297,7 +50385,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="591" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="591" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A591" s="351" t="str">
         <v/>
       </c>
@@ -50308,12 +50396,14 @@
         <v>5.21.08</v>
       </c>
       <c r="D591" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E591" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F591" s="351" t="str">
@@ -50514,7 +50604,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="600" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A600" s="351" t="str">
         <v/>
       </c>
@@ -50525,12 +50615,14 @@
         <v>5.22.08</v>
       </c>
       <c r="D600" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E600" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F600" s="351" t="str">
@@ -50731,7 +50823,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="609" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="609" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A609" s="351" t="str">
         <v/>
       </c>
@@ -50742,12 +50834,14 @@
         <v>5.23.08</v>
       </c>
       <c r="D609" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E609" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F609" s="351" t="str">
@@ -50948,7 +51042,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="618" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="618" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A618" s="351" t="str">
         <v/>
       </c>
@@ -50959,12 +51053,14 @@
         <v>5.24.08</v>
       </c>
       <c r="D618" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E618" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F618" s="351" t="str">
@@ -51173,7 +51269,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="627" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="627" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A627" s="351" t="str">
         <v/>
       </c>
@@ -51184,12 +51280,14 @@
         <v>5.25.08</v>
       </c>
       <c r="D627" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E627" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F627" s="351" t="str">
@@ -51390,7 +51488,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="636" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A636" s="351" t="str">
         <v/>
       </c>
@@ -51401,12 +51499,14 @@
         <v>5.26.08</v>
       </c>
       <c r="D636" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E636" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F636" s="351" t="str">
@@ -51599,7 +51699,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="645" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="645" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A645" s="351" t="str">
         <v/>
       </c>
@@ -51610,12 +51710,14 @@
         <v>5.27.08</v>
       </c>
       <c r="D645" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E645" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F645" s="351" t="str">
@@ -51781,7 +51883,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="653" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="653" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A653" s="351" t="str">
         <v/>
       </c>
@@ -51792,12 +51894,14 @@
         <v>5.28.07</v>
       </c>
       <c r="D653" s="351" t="str">
-        <v>MustSupport references within Procedure resources can be read</v>
+        <v>MustSupport references within Procedure resources are valid</v>
       </c>
       <c r="E653" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Procedure.subject</v>
       </c>
       <c r="F653" s="351" t="str">
@@ -51896,7 +52000,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="658" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
+    <row r="658" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
       <c r="A658" s="351" t="str">
         <v/>
       </c>
@@ -51907,12 +52011,14 @@
         <v>5.29.04</v>
       </c>
       <c r="D658" s="351" t="str">
-        <v>MustSupport references within Encounter resources can be read</v>
+        <v>MustSupport references within Encounter resources are valid</v>
       </c>
       <c r="E658" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Encounter.location.location
 * Encounter.participant.individual
 * Encounter.reasonReference
@@ -52179,7 +52285,7 @@
         <v>DAT-PAT-2, DAT-PAT-3</v>
       </c>
     </row>
-    <row r="671" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="671" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A671" s="351" t="str">
         <v/>
       </c>
@@ -52190,12 +52296,14 @@
         <v>5.32.04</v>
       </c>
       <c r="D671" s="351" t="str">
-        <v>MustSupport references within Provenance resources can be read</v>
+        <v>MustSupport references within Provenance resources are valid</v>
       </c>
       <c r="E671" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Provenance.agent.onBehalfOf
 * Provenance.agent.who
 * Provenance.target</v>
@@ -52868,7 +52976,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="703" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="703" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A703" s="351" t="str">
         <v/>
       </c>
@@ -52879,12 +52987,14 @@
         <v>6.3.06</v>
       </c>
       <c r="D703" s="351" t="str">
-        <v>MustSupport references within AllergyIntolerance resources can be read</v>
+        <v>MustSupport references within AllergyIntolerance resources are valid</v>
       </c>
       <c r="E703" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * AllergyIntolerance.patient</v>
       </c>
       <c r="F703" s="351" t="str">
@@ -53030,7 +53140,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="710" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="710" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A710" s="351" t="str">
         <v/>
       </c>
@@ -53041,12 +53151,14 @@
         <v>6.4.06</v>
       </c>
       <c r="D710" s="351" t="str">
-        <v>MustSupport references within CarePlan resources can be read</v>
+        <v>MustSupport references within CarePlan resources are valid</v>
       </c>
       <c r="E710" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CarePlan.subject</v>
       </c>
       <c r="F710" s="351" t="str">
@@ -53189,7 +53301,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="717" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="717" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A717" s="351" t="str">
         <v/>
       </c>
@@ -53200,12 +53312,14 @@
         <v>6.5.06</v>
       </c>
       <c r="D717" s="351" t="str">
-        <v>MustSupport references within CareTeam resources can be read</v>
+        <v>MustSupport references within CareTeam resources are valid</v>
       </c>
       <c r="E717" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * CareTeam.participant.member
 * CareTeam.subject</v>
       </c>
@@ -53355,7 +53469,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="724" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="724" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A724" s="351" t="str">
         <v/>
       </c>
@@ -53366,12 +53480,14 @@
         <v>6.6.06</v>
       </c>
       <c r="D724" s="351" t="str">
-        <v>MustSupport references within Condition resources can be read</v>
+        <v>MustSupport references within Condition resources are valid</v>
       </c>
       <c r="E724" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Condition.encounter
 * Condition.subject</v>
       </c>
@@ -53521,7 +53637,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="731" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="731" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A731" s="351" t="str">
         <v/>
       </c>
@@ -53532,12 +53648,14 @@
         <v>6.7.06</v>
       </c>
       <c r="D731" s="351" t="str">
-        <v>MustSupport references within Condition resources can be read</v>
+        <v>MustSupport references within Condition resources are valid</v>
       </c>
       <c r="E731" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Condition.subject</v>
       </c>
       <c r="F731" s="351" t="str">
@@ -53685,7 +53803,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="738" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="738" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A738" s="351" t="str">
         <v/>
       </c>
@@ -53696,12 +53814,14 @@
         <v>6.8.06</v>
       </c>
       <c r="D738" s="351" t="str">
-        <v>MustSupport references within Device resources can be read</v>
+        <v>MustSupport references within Device resources are valid</v>
       </c>
       <c r="E738" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Device.patient</v>
       </c>
       <c r="F738" s="351" t="str">
@@ -53945,7 +54065,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="749" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
+    <row r="749" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
       <c r="A749" s="351" t="str">
         <v/>
       </c>
@@ -53956,12 +54076,14 @@
         <v>6.9.09</v>
       </c>
       <c r="D749" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E749" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.encounter
 * DiagnosticReport.media.link
 * DiagnosticReport.performer
@@ -54184,7 +54306,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="759" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="759" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A759" s="351" t="str">
         <v/>
       </c>
@@ -54195,12 +54317,14 @@
         <v>6.10.09</v>
       </c>
       <c r="D759" s="351" t="str">
-        <v>MustSupport references within DiagnosticReport resources can be read</v>
+        <v>MustSupport references within DiagnosticReport resources are valid</v>
       </c>
       <c r="E759" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DiagnosticReport.performer
 * DiagnosticReport.result
 * DiagnosticReport.subject</v>
@@ -54452,7 +54576,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="770" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="770" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A770" s="351" t="str">
         <v/>
       </c>
@@ -54463,12 +54587,14 @@
         <v>6.11.10</v>
       </c>
       <c r="D770" s="351" t="str">
-        <v>MustSupport references within DocumentReference resources can be read</v>
+        <v>MustSupport references within DocumentReference resources are valid</v>
       </c>
       <c r="E770" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * DocumentReference.author
 * DocumentReference.context.encounter
 * DocumentReference.subject</v>
@@ -54694,7 +54820,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="780" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
+    <row r="780" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
       <c r="A780" s="351" t="str">
         <v/>
       </c>
@@ -54705,12 +54831,14 @@
         <v>6.12.08</v>
       </c>
       <c r="D780" s="351" t="str">
-        <v>MustSupport references within Encounter resources can be read</v>
+        <v>MustSupport references within Encounter resources are valid</v>
       </c>
       <c r="E780" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Encounter.location.location
 * Encounter.participant.individual
 * Encounter.reasonReference
@@ -54857,7 +54985,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="787" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="787" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A787" s="351" t="str">
         <v/>
       </c>
@@ -54868,12 +54996,14 @@
         <v>6.13.06</v>
       </c>
       <c r="D787" s="351" t="str">
-        <v>MustSupport references within Goal resources can be read</v>
+        <v>MustSupport references within Goal resources are valid</v>
       </c>
       <c r="E787" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Goal.subject</v>
       </c>
       <c r="F787" s="351" t="str">
@@ -55017,7 +55147,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="794" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="794" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A794" s="351" t="str">
         <v/>
       </c>
@@ -55028,12 +55158,14 @@
         <v>6.14.06</v>
       </c>
       <c r="D794" s="351" t="str">
-        <v>MustSupport references within Immunization resources can be read</v>
+        <v>MustSupport references within Immunization resources are valid</v>
       </c>
       <c r="E794" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Immunization.patient</v>
       </c>
       <c r="F794" s="351" t="str">
@@ -55239,7 +55371,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="803" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="803" spans="1:6" s="350" customFormat="1" ht="130" customHeight="1">
       <c r="A803" s="351" t="str">
         <v/>
       </c>
@@ -55250,12 +55382,14 @@
         <v>6.15.08</v>
       </c>
       <c r="D803" s="351" t="str">
-        <v>MustSupport references within MedicationRequest resources can be read</v>
+        <v>MustSupport references within MedicationRequest resources are valid</v>
       </c>
       <c r="E803" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * MedicationRequest.encounter
 * MedicationRequest.medication[x]
 * MedicationRequest.requester
@@ -55453,7 +55587,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="812" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="812" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A812" s="351" t="str">
         <v/>
       </c>
@@ -55464,12 +55598,14 @@
         <v>6.16.08</v>
       </c>
       <c r="D812" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E812" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F812" s="351" t="str">
@@ -55668,7 +55804,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="821" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="821" spans="1:6" s="350" customFormat="1" ht="130" customHeight="1">
       <c r="A821" s="351" t="str">
         <v/>
       </c>
@@ -55679,12 +55815,14 @@
         <v>6.17.08</v>
       </c>
       <c r="D821" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E821" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.derivedFrom
 * Observation.hasMember
 * Observation.performer
@@ -55888,7 +56026,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="830" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="830" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A830" s="351" t="str">
         <v/>
       </c>
@@ -55899,12 +56037,14 @@
         <v>6.18.08</v>
       </c>
       <c r="D830" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E830" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F830" s="351" t="str">
@@ -56102,7 +56242,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="839" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="839" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A839" s="351" t="str">
         <v/>
       </c>
@@ -56113,12 +56253,14 @@
         <v>6.19.08</v>
       </c>
       <c r="D839" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E839" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.performer
 * Observation.subject</v>
       </c>
@@ -56320,7 +56462,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="848" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="848" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A848" s="351" t="str">
         <v/>
       </c>
@@ -56331,12 +56473,14 @@
         <v>6.20.08</v>
       </c>
       <c r="D848" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E848" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F848" s="351" t="str">
@@ -56537,7 +56681,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="857" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="857" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A857" s="351" t="str">
         <v/>
       </c>
@@ -56548,12 +56692,14 @@
         <v>6.21.08</v>
       </c>
       <c r="D857" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E857" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F857" s="351" t="str">
@@ -56754,7 +56900,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="866" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="866" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A866" s="351" t="str">
         <v/>
       </c>
@@ -56765,12 +56911,14 @@
         <v>6.22.08</v>
       </c>
       <c r="D866" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E866" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F866" s="351" t="str">
@@ -56979,7 +57127,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="875" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="875" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A875" s="351" t="str">
         <v/>
       </c>
@@ -56990,12 +57138,14 @@
         <v>6.23.08</v>
       </c>
       <c r="D875" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E875" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F875" s="351" t="str">
@@ -57188,7 +57338,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="884" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="884" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A884" s="351" t="str">
         <v/>
       </c>
@@ -57199,12 +57349,14 @@
         <v>6.24.08</v>
       </c>
       <c r="D884" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E884" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F884" s="351" t="str">
@@ -57347,7 +57499,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="891" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="891" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A891" s="351" t="str">
         <v/>
       </c>
@@ -57358,12 +57510,14 @@
         <v>6.25.06</v>
       </c>
       <c r="D891" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E891" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F891" s="351" t="str">
@@ -57564,7 +57718,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="900" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="900" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A900" s="351" t="str">
         <v/>
       </c>
@@ -57575,12 +57729,14 @@
         <v>6.26.08</v>
       </c>
       <c r="D900" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E900" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F900" s="351" t="str">
@@ -57781,7 +57937,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="909" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="909" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A909" s="351" t="str">
         <v/>
       </c>
@@ -57792,12 +57948,14 @@
         <v>6.27.08</v>
       </c>
       <c r="D909" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E909" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F909" s="351" t="str">
@@ -57998,7 +58156,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="918" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="918" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A918" s="351" t="str">
         <v/>
       </c>
@@ -58009,12 +58167,14 @@
         <v>6.28.08</v>
       </c>
       <c r="D918" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E918" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F918" s="351" t="str">
@@ -58219,7 +58379,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="927" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="927" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A927" s="351" t="str">
         <v/>
       </c>
@@ -58230,12 +58390,14 @@
         <v>6.29.08</v>
       </c>
       <c r="D927" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E927" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F927" s="351" t="str">
@@ -58430,7 +58592,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="936" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="936" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A936" s="351" t="str">
         <v/>
       </c>
@@ -58441,12 +58603,14 @@
         <v>6.30.08</v>
       </c>
       <c r="D936" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E936" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F936" s="351" t="str">
@@ -58641,7 +58805,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="945" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="945" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A945" s="351" t="str">
         <v/>
       </c>
@@ -58652,12 +58816,14 @@
         <v>6.31.08</v>
       </c>
       <c r="D945" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E945" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F945" s="351" t="str">
@@ -58858,7 +59024,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="954" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="954" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A954" s="351" t="str">
         <v/>
       </c>
@@ -58869,12 +59035,14 @@
         <v>6.32.08</v>
       </c>
       <c r="D954" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E954" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F954" s="351" t="str">
@@ -59075,7 +59243,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="963" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="963" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A963" s="351" t="str">
         <v/>
       </c>
@@ -59086,12 +59254,14 @@
         <v>6.33.08</v>
       </c>
       <c r="D963" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E963" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F963" s="351" t="str">
@@ -59292,7 +59462,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="972" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="972" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A972" s="351" t="str">
         <v/>
       </c>
@@ -59303,12 +59473,14 @@
         <v>6.34.08</v>
       </c>
       <c r="D972" s="351" t="str">
-        <v>MustSupport references within Observation resources can be read</v>
+        <v>MustSupport references within Observation resources are valid</v>
       </c>
       <c r="E972" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Observation.subject</v>
       </c>
       <c r="F972" s="351" t="str">
@@ -59474,7 +59646,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="980" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="980" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A980" s="351" t="str">
         <v/>
       </c>
@@ -59485,12 +59657,14 @@
         <v>6.35.07</v>
       </c>
       <c r="D980" s="351" t="str">
-        <v>MustSupport references within Procedure resources can be read</v>
+        <v>MustSupport references within Procedure resources are valid</v>
       </c>
       <c r="E980" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Procedure.subject</v>
       </c>
       <c r="F980" s="351" t="str">
@@ -59733,7 +59907,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="991" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+    <row r="991" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A991" s="351" t="str">
         <v/>
       </c>
@@ -59744,12 +59918,14 @@
         <v>6.36.10</v>
       </c>
       <c r="D991" s="351" t="str">
-        <v>MustSupport references within ServiceRequest resources can be read</v>
+        <v>MustSupport references within ServiceRequest resources are valid</v>
       </c>
       <c r="E991" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * ServiceRequest.requester
 * ServiceRequest.subject</v>
       </c>
@@ -60022,7 +60198,7 @@
         <v>DAT-PAT-2, DAT-PAT-3</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+    <row r="1004" spans="1:6" s="350" customFormat="1" ht="120" customHeight="1">
       <c r="A1004" s="351" t="str">
         <v/>
       </c>
@@ -60033,12 +60209,14 @@
         <v>6.39.04</v>
       </c>
       <c r="D1004" s="351" t="str">
-        <v>MustSupport references within Provenance resources can be read</v>
+        <v>MustSupport references within Provenance resources are valid</v>
       </c>
       <c r="E1004" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * Provenance.agent.onBehalfOf
 * Provenance.agent.who
 * Provenance.target</v>
@@ -60128,7 +60306,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+    <row r="1009" spans="1:6" s="350" customFormat="1" ht="100" customHeight="1">
       <c r="A1009" s="351" t="str">
         <v/>
       </c>
@@ -60139,12 +60317,14 @@
         <v>6.40.04</v>
       </c>
       <c r="D1009" s="351" t="str">
-        <v>MustSupport references within RelatedPerson resources can be read</v>
+        <v>MustSupport references within RelatedPerson resources are valid</v>
       </c>
       <c r="E1009" s="351" t="str">
         <v xml:space="preserve">This test will attempt to read external references provided within elements
-marked as 'MustSupport', if any are available.  Elements which may provide
-external references include:
+marked as 'MustSupport', if any are available.
+It verifies that at least one external reference for each MustSupport Reference element
+can be accessed by the test client, and conforms to corresponding US Core profile.
+Elements which may provide external references include:
 * RelatedPerson.patient</v>
       </c>
       <c r="F1009" s="351" t="str">
@@ -63907,7 +64087,7 @@
         <v/>
       </c>
     </row>
-    <row r="1189" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+    <row r="1189" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
       <c r="A1189" s="351" t="str">
         <v/>
       </c>
@@ -63922,10 +64102,12 @@
       </c>
       <c r="E1189" s="351" t="str">
         <v xml:space="preserve">Health IT Module attested that it is capable of issuing refresh tokens
-that are valid for a period of no shorter than three months.</v>
+that are valid for a period of no shorter than three months.
+This attestation is necessary because automated tests cannot determine how long
+the refresh token remains valid.</v>
       </c>
       <c r="F1189" s="351" t="str">
-        <v>AUT-PAT-22</v>
+        <v/>
       </c>
     </row>
     <row r="1190" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
@@ -64022,10 +64204,10 @@
         <v>9.10.10</v>
       </c>
       <c r="D1194" s="351" t="str">
-        <v>Health IT developer confirms the Health IT module does not cache the JWK Set received via a TLS-protected URL for longer than the cache-control header received by an application indicates.</v>
+        <v>Health IT developer confirms the Health IT Module does not cache the JWK Set received via a TLS-protected URL for longer than the cache-control header received by an application indicates.</v>
       </c>
       <c r="E1194" s="351" t="str">
-        <v xml:space="preserve">The Health IT developer confirms the Health IT module does not cache the
+        <v xml:space="preserve">The Health IT developer confirms the Health IT Module does not cache the
 JWK Set received via a TLS-protected URL for longer than the
 cache-control header indicates.</v>
       </c>
@@ -64120,7 +64302,7 @@
         <v>9.10.14</v>
       </c>
       <c r="D1198" s="351" t="str">
-        <v>Health IT developer demonstrates the public location of its base URLs</v>
+        <v>Health IT developer demonstrates the public location of its base URLs.</v>
       </c>
       <c r="E1198" s="351" t="str">
         <v xml:space="preserve">To fulfill the API Maintenance of Certification requirement at §
@@ -64155,6 +64337,42 @@
         <v>SEC-CNN-1</v>
       </c>
     </row>
+    <row r="1200" spans="1:6" s="350" customFormat="1" ht="200" customHeight="1">
+      <c r="A1200" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1200" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1200" s="351" t="str">
+        <v>9.10.16</v>
+      </c>
+      <c r="D1200" s="351" t="str">
+        <v>Health IT developer attested that the Health IT Module is capable of issuing refresh tokens valid for a new period of no shorter than three months without requiring re-authentication and re-authorization when a valid refresh token is supplied by the application.</v>
+      </c>
+      <c r="E1200" s="351" t="str">
+        <v xml:space="preserve">Applications that are capable of storing a client secret and that have
+received a refresh token must be able to use this refresh token to
+either receive a new refresh token valid for a new period of no less
+than three months, or to update the duration of the existing refresh
+token to be valid for a new period of no less than three months.  This
+occurs during the refresh token request, when the application uses a
+refresh token to receive a new access token.
+This attestation is necessary because automated tests cannot determine
+if the expiration date of the refresh token is updated when tokens
+are refreshed.
+This attestation ensures that the Health IT Module allows applications
+to use refresh tokens to update the length of authorized access beyond
+the initial period of no less than three months by issuing a new refresh
+token or updating the duration of the existing refresh token.  A
+separate attestation ensures that the Health IT Module is capable of
+issuing an initial refresh token that is valid for at least three
+months.</v>
+      </c>
+      <c r="F1200" s="351" t="str">
+        <v>AUT-PAT-22</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3285,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.4.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.5.0)</v>
       </c>
     </row>
     <row r="2" spans="3:147" s="3" customFormat="1" ht="20" customHeight="1">
@@ -36813,7 +36813,7 @@
         <v>yes</v>
       </c>
       <c r="H94" s="351" t="str">
-        <v>7.2.07, 8.2.07</v>
+        <v>7.2.07, 8.2.07, 8.2.09</v>
       </c>
       <c r="I94" s="351"/>
       <c r="J94" s="351"/>
@@ -37022,7 +37022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1200"/>
+  <dimension ref="A1:F1201"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -39368,7 +39368,7 @@
         <v>AUT-PAT-1, AUT-PAT-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+    <row r="120" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
       <c r="A120" s="351" t="str">
         <v/>
       </c>
@@ -39382,7 +39382,8 @@
         <v>EHR server sends launch parameter</v>
       </c>
       <c r="E120" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
+        <v xml:space="preserve">The `launch` URL parameter associates the app's authorization request with
+the current EHR session.</v>
       </c>
       <c r="F120" s="351" t="str">
         <v>AUT-PAT-1, AUT-PAT-2</v>
@@ -39697,7 +39698,7 @@
         <v>AUT-PAT-1, AUT-PAT-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+    <row r="136" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
       <c r="A136" s="351" t="str">
         <v/>
       </c>
@@ -39711,7 +39712,8 @@
         <v>EHR server sends launch parameter</v>
       </c>
       <c r="E136" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
+        <v xml:space="preserve">The `launch` URL parameter associates the app's authorization request with
+the current EHR session.</v>
       </c>
       <c r="F136" s="351" t="str">
         <v>AUT-PAT-1, AUT-PAT-2</v>
@@ -40441,7 +40443,7 @@
         <v>SH-PAT-1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="172" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A172" s="351" t="str">
         <v/>
       </c>
@@ -40456,10 +40458,11 @@
       </c>
       <c r="E172" s="351" t="str">
         <v xml:space="preserve">US Core Implementation Guide states:
-US Core Server SHALL:
-upport the US Core Patient resource profile.
-upport at least one additional resource profile from the list of US
-Core Profiles.</v>
+ US Core Server SHALL:
+Support the US Core Patient resource profile.
+Support at least one additional resource profile from the list of US
+Core Profiles.
+order to support USCDI, servers must support all USCDI resources.</v>
       </c>
       <c r="F172" s="351" t="str">
         <v>SH-PAT-1</v>
@@ -46213,7 +46216,7 @@
         <v>SH-PAT-1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="417" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A417" s="351" t="str">
         <v/>
       </c>
@@ -46228,10 +46231,11 @@
       </c>
       <c r="E417" s="351" t="str">
         <v xml:space="preserve">US Core Implementation Guide states:
-US Core Server SHALL:
-upport the US Core Patient resource profile.
-upport at least one additional resource profile from the list of US
-Core Profiles.</v>
+ US Core Server SHALL:
+Support the US Core Patient resource profile.
+Support at least one additional resource profile from the list of US
+Core Profiles.
+order to support USCDI, servers must support all USCDI resources.</v>
       </c>
       <c r="F417" s="351" t="str">
         <v>SH-PAT-1</v>
@@ -52542,7 +52546,7 @@
         <v>SH-PAT-1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+    <row r="685" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
       <c r="A685" s="351" t="str">
         <v/>
       </c>
@@ -52557,10 +52561,11 @@
       </c>
       <c r="E685" s="351" t="str">
         <v xml:space="preserve">US Core Implementation Guide states:
-US Core Server SHALL:
-upport the US Core Patient resource profile.
-upport at least one additional resource profile from the list of US
-Core Profiles.</v>
+ US Core Server SHALL:
+Support the US Core Patient resource profile.
+Support at least one additional resource profile from the list of US
+Core Profiles.
+order to support USCDI, servers must support all USCDI resources.</v>
       </c>
       <c r="F685" s="351" t="str">
         <v>SH-PAT-1</v>
@@ -61835,49 +61840,72 @@
         <v/>
       </c>
     </row>
-    <row r="1079" spans="2:2" customFormat="false">
-      <c r="B1079" s="0" t="str">
+    <row r="1079" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1079" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1079" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1079" s="351" t="str">
+        <v>8.2.09</v>
+      </c>
+      <c r="D1079" s="351" t="str">
+        <v>Bulk Data Server returns a 404 and OperationOutcome for polling requests to cancelled exports</v>
+      </c>
+      <c r="E1079" s="351" t="str">
+        <v xml:space="preserve">Following the delete request, when subsequent requests are made to the
+polling location, the server SHALL return a 404 Not Found error and an
+associated FHIR OperationOutcome in JSON format.
+tp://hl7.org/fhir/uv/bulkdata/STU2/export.html#bulk-data-delete-request</v>
+      </c>
+      <c r="F1079" s="351" t="str">
+        <v>DAT-PAT-12</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:2" customFormat="false">
+      <c r="B1080" s="0" t="str">
         <v>8.3: Group Compartment Export Validation Tests</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1080" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1080" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1080" s="351" t="str">
+    <row r="1081" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1081" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1081" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1081" s="351" t="str">
         <v>8.3.01</v>
       </c>
-      <c r="D1080" s="351" t="str">
+      <c r="D1081" s="351" t="str">
         <v>Bulk Data Server is secured by transport layer security</v>
       </c>
-      <c r="E1080" s="351" t="str">
+      <c r="E1081" s="351" t="str">
         <v xml:space="preserve">[§170.315(g)(10) Test Procedure]
 (https://www.healthit.gov/test-method/standardized-api-patient-and-population-services)
 requires that all exchanges described herein between a client and a
 server SHALL be secured using Transport Layer Security  (TLS)
 Protocol Version 1.2 (RFC5246).</v>
       </c>
-      <c r="F1080" s="351" t="str">
+      <c r="F1081" s="351" t="str">
         <v>SEC-CNN-1, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
-      <c r="A1081" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1081" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1081" s="351" t="str">
+    <row r="1082" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+      <c r="A1082" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1082" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1082" s="351" t="str">
         <v>8.3.02</v>
       </c>
-      <c r="D1081" s="351" t="str">
+      <c r="D1082" s="351" t="str">
         <v>NDJSON download requires access token if requireAccessToken is true</v>
       </c>
-      <c r="E1081" s="351" t="str">
+      <c r="E1082" s="351" t="str">
         <v xml:space="preserve">If the requiresAccessToken field in the Complete Status body is set to true, the request SHALL include a valid 
 access token.
 [FHIR R4 Security](https://www.hl7.org/fhir/security.html#AccessDenied) and
@@ -61885,153 +61913,153 @@
 recommend using HTTP status code 401 for invalid token but also allow the actual result be controlled by policy 
 and context.</v>
       </c>
-      <c r="F1081" s="351" t="str">
+      <c r="F1082" s="351" t="str">
         <v>DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1082" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1082" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1082" s="351" t="str">
+    <row r="1083" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1083" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1083" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1083" s="351" t="str">
         <v>8.3.03</v>
       </c>
-      <c r="D1082" s="351" t="str">
+      <c r="D1083" s="351" t="str">
         <v>Patient resources returned conform to the US Core Patient Profile</v>
       </c>
-      <c r="E1082" s="351" t="str">
+      <c r="E1083" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Patient profile. This includes checking for missing data
 elements and value set verification.</v>
       </c>
-      <c r="F1082" s="351" t="str">
+      <c r="F1083" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1083" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1083" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1083" s="351" t="str">
+    <row r="1084" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1084" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1084" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1084" s="351" t="str">
         <v>8.3.04</v>
       </c>
-      <c r="D1083" s="351" t="str">
+      <c r="D1084" s="351" t="str">
         <v>Group export has at least two patients</v>
       </c>
-      <c r="E1083" s="351" t="str">
+      <c r="E1084" s="351" t="str">
         <v>This test verifies that the Group export has at least two patients.</v>
       </c>
-      <c r="F1083" s="351" t="str">
+      <c r="F1084" s="351" t="str">
         <v>DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1084" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1084" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1084" s="351" t="str">
+    <row r="1085" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1085" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1085" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1085" s="351" t="str">
         <v>8.3.05</v>
       </c>
-      <c r="D1084" s="351" t="str">
+      <c r="D1085" s="351" t="str">
         <v>Patient IDs match those expected in Group</v>
       </c>
-      <c r="E1084" s="351" t="str">
+      <c r="E1085" s="351" t="str">
         <v xml:space="preserve">This test checks that the list of patient IDs that are expected match those that are returned.
 If no patient ids are provided to the test, then the test will be omitted.</v>
       </c>
-      <c r="F1084" s="351" t="str">
+      <c r="F1085" s="351" t="str">
         <v>DAT-PAT-14, DAT-PAT-15</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1085" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1085" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1085" s="351" t="str">
+    <row r="1086" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1086" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1086" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1086" s="351" t="str">
         <v>8.3.06</v>
       </c>
-      <c r="D1085" s="351" t="str">
+      <c r="D1086" s="351" t="str">
         <v>AllergyIntolerance resources returned conform to the US Core AllergyIntolerance Profile</v>
       </c>
-      <c r="E1085" s="351" t="str">
+      <c r="E1086" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core AllergyIntolerance profile. This includes
 checking for missing data elements and value set verification.</v>
       </c>
-      <c r="F1085" s="351" t="str">
+      <c r="F1086" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1086" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1086" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1086" s="351" t="str">
+    <row r="1087" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1087" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1087" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1087" s="351" t="str">
         <v>8.3.07</v>
       </c>
-      <c r="D1086" s="351" t="str">
+      <c r="D1087" s="351" t="str">
         <v>CarePlan resources returned conform to the US Core CarePlan Profile</v>
       </c>
-      <c r="E1086" s="351" t="str">
+      <c r="E1087" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core CarePlan profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1086" s="351" t="str">
+      <c r="F1087" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1087" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1087" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1087" s="351" t="str">
+    <row r="1088" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1088" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1088" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1088" s="351" t="str">
         <v>8.3.08</v>
       </c>
-      <c r="D1087" s="351" t="str">
+      <c r="D1088" s="351" t="str">
         <v>CareTeam resources returned conform to the US Core CareTeam Profile</v>
       </c>
-      <c r="E1087" s="351" t="str">
+      <c r="E1088" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core CareTeam profile. This includes checking for missing data
 elements and value set verification.</v>
       </c>
-      <c r="F1087" s="351" t="str">
+      <c r="F1088" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
-      <c r="A1088" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1088" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1088" s="351" t="str">
+    <row r="1089" spans="1:6" s="350" customFormat="1" ht="140" customHeight="1">
+      <c r="A1089" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1089" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1089" s="351" t="str">
         <v>8.3.09</v>
       </c>
-      <c r="D1088" s="351" t="str">
+      <c r="D1089" s="351" t="str">
         <v>Condition resources returned conform to the relevant US Core Condition Profile</v>
       </c>
-      <c r="E1088" s="351" t="str">
+      <c r="E1089" s="351" t="str">
         <v xml:space="preserve">This test verifies that the server can provide evidence of support for
 the following US Core Condition profiles.  This includes checking for
 missing data elements and value set verification.
@@ -62041,24 +62069,24 @@
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-encounter-diagnosis
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns</v>
       </c>
-      <c r="F1088" s="351" t="str">
+      <c r="F1089" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
-      <c r="A1089" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1089" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1089" s="351" t="str">
+    <row r="1090" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+      <c r="A1090" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1090" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1090" s="351" t="str">
         <v>8.3.10</v>
       </c>
-      <c r="D1089" s="351" t="str">
+      <c r="D1090" s="351" t="str">
         <v>Device resources returned conform to the US Core Implantable Device Profile</v>
       </c>
-      <c r="E1089" s="351" t="str">
+      <c r="E1090" s="351" t="str">
         <v xml:space="preserve">This test verifies that relevant resources returned from bulk data export
 conform to the US Core Implantable Device profile. This includes
 checking for missing data elements and value set verification.
@@ -62066,24 +62094,24 @@
 profile, the tester may choose to provide a list of relevant Device Type Codes
 as an input to this test.</v>
       </c>
-      <c r="F1089" s="351" t="str">
+      <c r="F1090" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
-      <c r="A1090" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1090" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1090" s="351" t="str">
+    <row r="1091" spans="1:6" s="350" customFormat="1" ht="80" customHeight="1">
+      <c r="A1091" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1091" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1091" s="351" t="str">
         <v>8.3.11</v>
       </c>
-      <c r="D1090" s="351" t="str">
+      <c r="D1091" s="351" t="str">
         <v>DiagnosticReport resources returned conform to the relevant US Core DiagnosticReport Profile</v>
       </c>
-      <c r="E1090" s="351" t="str">
+      <c r="E1091" s="351" t="str">
         <v xml:space="preserve">This test verifies that the server can provide evidence of support for
 the following US Core DiagnosticReport profile based on the category of
 the DiagnosticReport. This includes checking for missing data elements
@@ -62091,112 +62119,112 @@
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-note</v>
       </c>
-      <c r="F1090" s="351" t="str">
+      <c r="F1091" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1091" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1091" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1091" s="351" t="str">
+    <row r="1092" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1092" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1092" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1092" s="351" t="str">
         <v>8.3.12</v>
       </c>
-      <c r="D1091" s="351" t="str">
+      <c r="D1092" s="351" t="str">
         <v>DocumentReference resources returned conform to the US Core DocumentReference Profile</v>
       </c>
-      <c r="E1091" s="351" t="str">
+      <c r="E1092" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core DocumenReference profile. This includes checking
 for missing data elements and value set verification.</v>
       </c>
-      <c r="F1091" s="351" t="str">
+      <c r="F1092" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1092" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1092" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1092" s="351" t="str">
+    <row r="1093" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1093" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1093" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1093" s="351" t="str">
         <v>8.3.13</v>
       </c>
-      <c r="D1092" s="351" t="str">
+      <c r="D1093" s="351" t="str">
         <v>Goal resources returned conform to the US Core Goal Profile</v>
       </c>
-      <c r="E1092" s="351" t="str">
+      <c r="E1093" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Goal profile. This includes checking for missing
 data elements and value set verification.</v>
       </c>
-      <c r="F1092" s="351" t="str">
+      <c r="F1093" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1093" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1093" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1093" s="351" t="str">
+    <row r="1094" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1094" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1094" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1094" s="351" t="str">
         <v>8.3.14</v>
       </c>
-      <c r="D1093" s="351" t="str">
+      <c r="D1094" s="351" t="str">
         <v>Immunization resources returned conform to the US Core Immunization Profile</v>
       </c>
-      <c r="E1093" s="351" t="str">
+      <c r="E1094" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Immunization profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1093" s="351" t="str">
+      <c r="F1094" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1094" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1094" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1094" s="351" t="str">
+    <row r="1095" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1095" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1095" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1095" s="351" t="str">
         <v>8.3.15</v>
       </c>
-      <c r="D1094" s="351" t="str">
+      <c r="D1095" s="351" t="str">
         <v>MedicationRequest resources returned conform to the US Core MedicationRequest Profile</v>
       </c>
-      <c r="E1094" s="351" t="str">
+      <c r="E1095" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core MedicationRequest profile. This includes checking
 for missing data elements and value set verification.</v>
       </c>
-      <c r="F1094" s="351" t="str">
+      <c r="F1095" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" s="350" customFormat="1" ht="590" customHeight="1">
-      <c r="A1095" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1095" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1095" s="351" t="str">
+    <row r="1096" spans="1:6" s="350" customFormat="1" ht="590" customHeight="1">
+      <c r="A1096" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1096" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1096" s="351" t="str">
         <v>8.3.16</v>
       </c>
-      <c r="D1095" s="351" t="str">
+      <c r="D1096" s="351" t="str">
         <v>Observation resources returned conform to the relevant US Core Observation Profile</v>
       </c>
-      <c r="E1095" s="351" t="str">
+      <c r="E1096" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the following US Core profiles, based on the category or code
 associated with the Observation. This includes checking for missing data
@@ -62250,330 +62278,310 @@
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-heart-rate
 * http://hl7.org/fhir/us/core/StructureDefinition/us-core-respiratory-rate</v>
       </c>
-      <c r="F1095" s="351" t="str">
+      <c r="F1096" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1096" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1096" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1096" s="351" t="str">
+    <row r="1097" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1097" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1097" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1097" s="351" t="str">
         <v>8.3.17</v>
       </c>
-      <c r="D1096" s="351" t="str">
+      <c r="D1097" s="351" t="str">
         <v>Procedure resources returned conform to the US Core Procedure Profile</v>
       </c>
-      <c r="E1096" s="351" t="str">
+      <c r="E1097" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Procedure profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1096" s="351" t="str">
+      <c r="F1097" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1097" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1097" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1097" s="351" t="str">
+    <row r="1098" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1098" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1098" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1098" s="351" t="str">
         <v>8.3.18</v>
       </c>
-      <c r="D1097" s="351" t="str">
+      <c r="D1098" s="351" t="str">
         <v>Encounter resources returned conform to the US Core Encounter Profile</v>
       </c>
-      <c r="E1097" s="351" t="str">
+      <c r="E1098" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Encounter profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1097" s="351" t="str">
+      <c r="F1098" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1098" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1098" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1098" s="351" t="str">
+    <row r="1099" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1099" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1099" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1099" s="351" t="str">
         <v>8.3.19</v>
       </c>
-      <c r="D1098" s="351" t="str">
+      <c r="D1099" s="351" t="str">
         <v>Organization resources returned conform to the US Core Organization Profile</v>
       </c>
-      <c r="E1098" s="351" t="str">
+      <c r="E1099" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Organization profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1098" s="351" t="str">
+      <c r="F1099" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1099" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1099" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1099" s="351" t="str">
+    <row r="1100" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1100" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1100" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1100" s="351" t="str">
         <v>8.3.20</v>
       </c>
-      <c r="D1099" s="351" t="str">
+      <c r="D1100" s="351" t="str">
         <v>Practitioner resources returned conform to the US Core Practitioner Profile</v>
       </c>
-      <c r="E1099" s="351" t="str">
+      <c r="E1100" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Practioner profile. This includes checking for
 missing data elements and value set verification.</v>
       </c>
-      <c r="F1099" s="351" t="str">
+      <c r="F1100" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1100" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1100" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1100" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1100" s="351" t="str">
+    <row r="1101" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1101" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1101" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1101" s="351" t="str">
         <v>8.3.21</v>
       </c>
-      <c r="D1100" s="351" t="str">
+      <c r="D1101" s="351" t="str">
         <v>Provenance resources returned conform to the US Core Provenance Profile</v>
       </c>
-      <c r="E1100" s="351" t="str">
+      <c r="E1101" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core profiles. This includes checking for missing data
 elements and value set verification.</v>
       </c>
-      <c r="F1100" s="351" t="str">
+      <c r="F1101" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-3, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
-      <c r="A1101" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1101" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1101" s="351" t="str">
+    <row r="1102" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A1102" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1102" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1102" s="351" t="str">
         <v>8.3.22</v>
       </c>
-      <c r="D1101" s="351" t="str">
+      <c r="D1102" s="351" t="str">
         <v>Location resources returned conform to the HL7 FHIR Specification Location Resource if bulk data export has Location resources</v>
       </c>
-      <c r="E1101" s="351" t="str">
+      <c r="E1102" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the HL7 FHIR Specification Location Resource. This includes
 checking for missing data elements and value set verification. This test
 is omitted if bulk data export does not return any Location resources.</v>
       </c>
-      <c r="F1101" s="351" t="str">
+      <c r="F1102" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
-      <c r="A1102" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1102" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1102" s="351" t="str">
+    <row r="1103" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A1103" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1103" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1103" s="351" t="str">
         <v>8.3.23</v>
       </c>
-      <c r="D1102" s="351" t="str">
+      <c r="D1103" s="351" t="str">
         <v>Medication resources returned conform to the US Core Medication Profile if bulk data export has Medication resources</v>
       </c>
-      <c r="E1102" s="351" t="str">
+      <c r="E1103" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core Medication profile, if available. This includes
 checking for missing data elements and value set verification. This test
 is omitted if bulk data export does not return any Medication resources.</v>
       </c>
-      <c r="F1102" s="351" t="str">
+      <c r="F1103" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-8, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1103" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1103" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1103" s="351" t="str">
+    <row r="1104" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1104" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1104" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1104" s="351" t="str">
         <v>8.3.24</v>
       </c>
-      <c r="D1103" s="351" t="str">
+      <c r="D1104" s="351" t="str">
         <v>ServiceRequest resources returned conform to the US Core ServiceRequest Profile</v>
       </c>
-      <c r="E1103" s="351" t="str">
+      <c r="E1104" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core ServiceRequest profile. This includes checking
 for missing data elements and value set verification.</v>
       </c>
-      <c r="F1103" s="351" t="str">
+      <c r="F1104" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1104" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1104" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1104" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1104" s="351" t="str">
+    <row r="1105" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1105" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1105" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1105" s="351" t="str">
         <v>8.3.25</v>
       </c>
-      <c r="D1104" s="351" t="str">
+      <c r="D1105" s="351" t="str">
         <v>RelatedPerson resources returned conform to the US Core RelatedPerson Profile</v>
       </c>
-      <c r="E1104" s="351" t="str">
+      <c r="E1105" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core RelatedPerson profile. This includes checking
 for missing data elements and value set verification.</v>
       </c>
-      <c r="F1104" s="351" t="str">
+      <c r="F1105" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
-      <c r="A1105" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1105" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1105" s="351" t="str">
+    <row r="1106" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A1106" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1106" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1106" s="351" t="str">
         <v>8.3.26</v>
       </c>
-      <c r="D1105" s="351" t="str">
+      <c r="D1106" s="351" t="str">
         <v>QuestionnaireResponse resources returned conform to the US Core QuestionnaireResponse Profile if bulk data has QuestionnaireResponse resources</v>
       </c>
-      <c r="E1105" s="351" t="str">
+      <c r="E1106" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core QuestionnaireResponse profile. This includes checking for missing
 data elements and value set verification. This test is omitted if bulk
 data export does not return any QuestionnaireResponse resources.</v>
       </c>
-      <c r="F1105" s="351" t="str">
+      <c r="F1106" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
-      <c r="A1106" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1106" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1106" s="351" t="str">
+    <row r="1107" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A1107" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1107" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1107" s="351" t="str">
         <v>8.3.27</v>
       </c>
-      <c r="D1106" s="351" t="str">
+      <c r="D1107" s="351" t="str">
         <v>PractionerRole resources returned conform to the US Core PractionerRole Profile if bulk data export has PractionerRole resources</v>
       </c>
-      <c r="E1106" s="351" t="str">
+      <c r="E1107" s="351" t="str">
         <v xml:space="preserve">This test verifies that the resources returned from bulk data export
 conform to the US Core PractitionerRole profile. This includes checking for missing
 data elements and value set verification. This test is omitted if bulk
 data export does not return any  resources.</v>
       </c>
-      <c r="F1106" s="351" t="str">
+      <c r="F1107" s="351" t="str">
         <v>DAT-PAT-1, DAT-PAT-2, DAT-PAT-16, DAT-PAT-14</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" customFormat="false">
-      <c r="A1108" s="0" t="str">
+    <row r="1109" spans="1:1" customFormat="false">
+      <c r="A1109" s="0" t="str">
         <v>Additional Tests</v>
       </c>
     </row>
-    <row r="1109" spans="2:2" customFormat="false">
-      <c r="B1109" s="0" t="str">
+    <row r="1110" spans="2:2" customFormat="false">
+      <c r="B1110" s="0" t="str">
         <v>9.1: Public Client Standalone Launch with OpenID Connect</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1110" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1110" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1110" s="351" t="str">
+    <row r="1111" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1111" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1111" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1111" s="351" t="str">
         <v>9.1.01</v>
       </c>
-      <c r="D1110" s="351" t="str">
+      <c r="D1111" s="351" t="str">
         <v>OAuth 2.0 authorize endpoint secured by transport layer security</v>
       </c>
-      <c r="E1110" s="351" t="str">
+      <c r="E1111" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1110" s="351" t="str">
+      <c r="F1111" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1111" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1111" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1111" s="351" t="str">
+    <row r="1112" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1112" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1112" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1112" s="351" t="str">
         <v>9.1.02</v>
       </c>
-      <c r="D1111" s="351" t="str">
+      <c r="D1112" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1111" s="351" t="str">
+      <c r="E1112" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.</v>
       </c>
-      <c r="F1111" s="351" t="str">
-        <v>AUT-PAT-4</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1112" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1112" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1112" s="351" t="str">
-        <v>9.1.03</v>
-      </c>
-      <c r="D1112" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1112" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1112" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1113" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1113" s="351" t="str">
         <v/>
       </c>
@@ -62581,173 +62589,193 @@
         <v/>
       </c>
       <c r="C1113" s="351" t="str">
+        <v>9.1.03</v>
+      </c>
+      <c r="D1113" s="351" t="str">
+        <v>OAuth server sends code parameter</v>
+      </c>
+      <c r="E1113" s="351" t="str">
+        <v>Code is a required querystring parameter on the redirect.</v>
+      </c>
+      <c r="F1113" s="351" t="str">
+        <v>AUT-PAT-4</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1114" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1114" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1114" s="351" t="str">
         <v>9.1.04</v>
       </c>
-      <c r="D1113" s="351" t="str">
+      <c r="D1114" s="351" t="str">
         <v>OAuth 2.0 token endpoint secured by transport layer security</v>
       </c>
-      <c r="E1113" s="351" t="str">
+      <c r="E1114" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1113" s="351" t="str">
+      <c r="F1114" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1114" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1114" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1114" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1114" s="351" t="str">
+    <row r="1115" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1115" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1115" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1115" s="351" t="str">
         <v>9.1.05</v>
       </c>
-      <c r="D1114" s="351" t="str">
+      <c r="D1115" s="351" t="str">
         <v>OAuth token exchange request succeeds when supplied correct information</v>
       </c>
-      <c r="E1114" s="351" t="str">
+      <c r="E1115" s="351" t="str">
         <v xml:space="preserve">After obtaining an authorization code, the app trades the code for an
 access token via HTTP POST to the EHR authorization server's token
 endpoint URL, using content-type application/x-www-form-urlencoded, as
 described in section [4.1.3 of
 RFC6749](https://tools.ietf.org/html/rfc6749#section-4.1.3).</v>
       </c>
-      <c r="F1114" s="351" t="str">
+      <c r="F1115" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1115" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1115" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1115" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1115" s="351" t="str">
+    <row r="1116" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1116" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1116" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1116" s="351" t="str">
         <v>9.1.06</v>
       </c>
-      <c r="D1115" s="351" t="str">
+      <c r="D1116" s="351" t="str">
         <v>Token exchange response body contains required information encoded in JSON</v>
       </c>
-      <c r="E1115" s="351" t="str">
+      <c r="E1116" s="351" t="str">
         <v xml:space="preserve">The EHR authorization server shall return a JSON structure that includes
 an access token or a message indicating that the authorization request
 has been denied. `access_token`, `token_type`, and `scope` are required.
 `token_type` must be Bearer. `expires_in` is required for token
 refreshes.</v>
       </c>
-      <c r="F1115" s="351" t="str">
+      <c r="F1116" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1116" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1116" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1116" s="351" t="str">
+    <row r="1117" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1117" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1117" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1117" s="351" t="str">
         <v>9.1.07</v>
       </c>
-      <c r="D1116" s="351" t="str">
+      <c r="D1117" s="351" t="str">
         <v>Response includes correct HTTP Cache-Control and Pragma headers</v>
       </c>
-      <c r="E1116" s="351" t="str">
+      <c r="E1117" s="351" t="str">
         <v xml:space="preserve">The authorization servers response must include the HTTP Cache-Control
 response header field with a value of no-store, as well as the Pragma
 response header field with a value of no-cache.</v>
       </c>
-      <c r="F1116" s="351" t="str">
+      <c r="F1117" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1117" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1117" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1117" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1117" s="351" t="str">
+    <row r="1118" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1118" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1118" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1118" s="351" t="str">
         <v>9.1.08</v>
       </c>
-      <c r="D1117" s="351" t="str">
+      <c r="D1118" s="351" t="str">
         <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
       </c>
-      <c r="E1117" s="351" t="str">
+      <c r="E1118" s="351" t="str">
         <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
 the app was launched in the context of this FHIR Patient.</v>
       </c>
-      <c r="F1117" s="351" t="str">
+      <c r="F1118" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1118" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1118" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1118" s="351" t="str">
+    <row r="1119" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1119" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1119" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1119" s="351" t="str">
         <v>9.1.09</v>
       </c>
-      <c r="D1118" s="351" t="str">
+      <c r="D1119" s="351" t="str">
         <v>OAuth token exchange response contains OpenID Connect id_token</v>
       </c>
-      <c r="E1118" s="351" t="str">
+      <c r="E1119" s="351" t="str">
         <v xml:space="preserve">This test requires that an OpenID Connect id_token is provided to
 demonstrate authentication capabilies for public clients.</v>
       </c>
-      <c r="F1118" s="351" t="str">
+      <c r="F1119" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1119" spans="2:2" customFormat="false">
-      <c r="B1119" s="0" t="str">
+    <row r="1120" spans="2:2" customFormat="false">
+      <c r="B1120" s="0" t="str">
         <v>9.2: Public Client Standalone Launch with OpenID Connect</v>
       </c>
     </row>
-    <row r="1120" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1120" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1120" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1120" s="351" t="str">
+    <row r="1121" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1121" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1121" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1121" s="351" t="str">
         <v>9.2.01</v>
       </c>
-      <c r="D1120" s="351" t="str">
+      <c r="D1121" s="351" t="str">
         <v>OAuth 2.0 authorize endpoint secured by transport layer security</v>
       </c>
-      <c r="E1120" s="351" t="str">
+      <c r="E1121" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1120" s="351" t="str">
+      <c r="F1121" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1121" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1121" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1121" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1121" s="351" t="str">
+    <row r="1122" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1122" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1122" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1122" s="351" t="str">
         <v>9.2.02</v>
       </c>
-      <c r="D1121" s="351" t="str">
+      <c r="D1122" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1121" s="351" t="str">
+      <c r="E1122" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -62755,31 +62783,11 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1121" s="351" t="str">
-        <v>AUT-PAT-4</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1122" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1122" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1122" s="351" t="str">
-        <v>9.2.03</v>
-      </c>
-      <c r="D1122" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1122" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1122" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1123" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1123" s="351" t="str">
         <v/>
       </c>
@@ -62787,174 +62795,174 @@
         <v/>
       </c>
       <c r="C1123" s="351" t="str">
+        <v>9.2.03</v>
+      </c>
+      <c r="D1123" s="351" t="str">
+        <v>OAuth server sends code parameter</v>
+      </c>
+      <c r="E1123" s="351" t="str">
+        <v>Code is a required querystring parameter on the redirect.</v>
+      </c>
+      <c r="F1123" s="351" t="str">
+        <v>AUT-PAT-4</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1124" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1124" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1124" s="351" t="str">
         <v>9.2.04</v>
       </c>
-      <c r="D1123" s="351" t="str">
+      <c r="D1124" s="351" t="str">
         <v>OAuth 2.0 token endpoint secured by transport layer security</v>
       </c>
-      <c r="E1123" s="351" t="str">
+      <c r="E1124" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1123" s="351" t="str">
+      <c r="F1124" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1124" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1124" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1124" s="351" t="str">
+    <row r="1125" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1125" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1125" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1125" s="351" t="str">
         <v>9.2.05</v>
       </c>
-      <c r="D1124" s="351" t="str">
+      <c r="D1125" s="351" t="str">
         <v>OAuth token exchange request succeeds when supplied correct information</v>
       </c>
-      <c r="E1124" s="351" t="str">
+      <c r="E1125" s="351" t="str">
         <v xml:space="preserve">After obtaining an authorization code, the app trades the code for an
 access token via HTTP POST to the EHR authorization server's token
 endpoint URL, using content-type application/x-www-form-urlencoded, as
 described in section [4.1.3 of
 RFC6749](https://tools.ietf.org/html/rfc6749#section-4.1.3).</v>
       </c>
-      <c r="F1124" s="351" t="str">
+      <c r="F1125" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1125" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1125" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1125" s="351" t="str">
+    <row r="1126" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1126" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1126" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1126" s="351" t="str">
         <v>9.2.06</v>
       </c>
-      <c r="D1125" s="351" t="str">
+      <c r="D1126" s="351" t="str">
         <v>Token exchange response body contains required information encoded in JSON</v>
       </c>
-      <c r="E1125" s="351" t="str">
+      <c r="E1126" s="351" t="str">
         <v xml:space="preserve">The EHR authorization server shall return a JSON structure that includes
 an access token or a message indicating that the authorization request
 has been denied. `access_token`, `token_type`, and `scope` are required.
 `token_type` must be Bearer. `expires_in` is required for token
 refreshes.</v>
       </c>
-      <c r="F1125" s="351" t="str">
+      <c r="F1126" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1126" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1126" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1126" s="351" t="str">
+    <row r="1127" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1127" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1127" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1127" s="351" t="str">
         <v>9.2.07</v>
       </c>
-      <c r="D1126" s="351" t="str">
+      <c r="D1127" s="351" t="str">
         <v>Response includes correct HTTP Cache-Control and Pragma headers</v>
       </c>
-      <c r="E1126" s="351" t="str">
+      <c r="E1127" s="351" t="str">
         <v xml:space="preserve">The authorization servers response must include the HTTP Cache-Control
 response header field with a value of no-store, as well as the Pragma
 response header field with a value of no-cache.</v>
       </c>
-      <c r="F1126" s="351" t="str">
+      <c r="F1127" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1127" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1127" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1127" s="351" t="str">
+    <row r="1128" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1128" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1128" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1128" s="351" t="str">
         <v>9.2.08</v>
       </c>
-      <c r="D1127" s="351" t="str">
+      <c r="D1128" s="351" t="str">
         <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
       </c>
-      <c r="E1127" s="351" t="str">
+      <c r="E1128" s="351" t="str">
         <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
 the app was launched in the context of this FHIR Patient.</v>
       </c>
-      <c r="F1127" s="351" t="str">
+      <c r="F1128" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1128" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1128" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1128" s="351" t="str">
+    <row r="1129" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1129" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1129" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1129" s="351" t="str">
         <v>9.2.09</v>
       </c>
-      <c r="D1128" s="351" t="str">
+      <c r="D1129" s="351" t="str">
         <v>OAuth token exchange response contains OpenID Connect id_token</v>
       </c>
-      <c r="E1128" s="351" t="str">
+      <c r="E1129" s="351" t="str">
         <v xml:space="preserve">This test requires that an OpenID Connect id_token is provided to
 demonstrate authentication capabilies for public clients.</v>
       </c>
-      <c r="F1128" s="351" t="str">
+      <c r="F1129" s="351" t="str">
         <v>AUT-PAT-4</v>
       </c>
     </row>
-    <row r="1129" spans="2:2" customFormat="false">
-      <c r="B1129" s="0" t="str">
+    <row r="1130" spans="2:2" customFormat="false">
+      <c r="B1130" s="0" t="str">
         <v>9.3: Token Revocation</v>
       </c>
     </row>
-    <row r="1130" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1130" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1130" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1130" s="351" t="str">
+    <row r="1131" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1131" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1131" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1131" s="351" t="str">
         <v>9.3.01</v>
       </c>
-      <c r="D1130" s="351" t="str">
+      <c r="D1131" s="351" t="str">
         <v>Health IT developer demonstrated the ability of the Health IT Module to revoke tokens.</v>
       </c>
-      <c r="E1130" s="351" t="str">
+      <c r="E1131" s="351" t="str">
         <v xml:space="preserve">Health IT developer demonstrated the ability of the Health IT Module /
 authorization server to revoke tokens.</v>
       </c>
-      <c r="F1130" s="351" t="str">
-        <v>PAR-1</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1131" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1131" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1131" s="351" t="str">
-        <v>9.3.02</v>
-      </c>
-      <c r="D1131" s="351" t="str">
-        <v>Access to Patient resource returns unauthorized after token revocation.</v>
-      </c>
-      <c r="E1131" s="351" t="str">
-        <v>This test checks that the Patient resource returns unuathorized after token revocation.</v>
-      </c>
       <c r="F1131" s="351" t="str">
         <v>PAR-1</v>
       </c>
@@ -62967,58 +62975,78 @@
         <v/>
       </c>
       <c r="C1132" s="351" t="str">
-        <v>9.3.03</v>
+        <v>9.3.02</v>
       </c>
       <c r="D1132" s="351" t="str">
-        <v>Token refresh fails after token revocation.</v>
+        <v>Access to Patient resource returns unauthorized after token revocation.</v>
       </c>
       <c r="E1132" s="351" t="str">
-        <v>This test checks that refreshing token fails after token revokation.</v>
+        <v>This test checks that the Patient resource returns unuathorized after token revocation.</v>
       </c>
       <c r="F1132" s="351" t="str">
         <v>PAR-1</v>
       </c>
     </row>
-    <row r="1133" spans="2:2" customFormat="false">
-      <c r="B1133" s="0" t="str">
+    <row r="1133" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1133" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1133" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1133" s="351" t="str">
+        <v>9.3.03</v>
+      </c>
+      <c r="D1133" s="351" t="str">
+        <v>Token refresh fails after token revocation.</v>
+      </c>
+      <c r="E1133" s="351" t="str">
+        <v>This test checks that refreshing token fails after token revokation.</v>
+      </c>
+      <c r="F1133" s="351" t="str">
+        <v>PAR-1</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:2" customFormat="false">
+      <c r="B1134" s="0" t="str">
         <v>9.4: SMART App Launch Error: Invalid AUD Parameter</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1134" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1134" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1134" s="351" t="str">
+    <row r="1135" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1135" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1135" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1135" s="351" t="str">
         <v>9.4.01</v>
       </c>
-      <c r="D1134" s="351" t="str">
+      <c r="D1135" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1134" s="351" t="str">
+      <c r="E1135" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.</v>
       </c>
-      <c r="F1134" s="351" t="str">
+      <c r="F1135" s="351" t="str">
         <v>AUT-PAT-13</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1135" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1135" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1135" s="351" t="str">
+    <row r="1136" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1136" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1136" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1136" s="351" t="str">
         <v>9.4.02</v>
       </c>
-      <c r="D1135" s="351" t="str">
+      <c r="D1136" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1135" s="351" t="str">
+      <c r="E1136" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63026,80 +63054,60 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1135" s="351" t="str">
+      <c r="F1136" s="351" t="str">
         <v>AUT-PAT-13</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
-      <c r="A1136" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1136" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1136" s="351" t="str">
+    <row r="1137" spans="1:6" s="350" customFormat="1" ht="50" customHeight="1">
+      <c r="A1137" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1137" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1137" s="351" t="str">
         <v>9.4.03</v>
       </c>
-      <c r="D1136" s="351" t="str">
+      <c r="D1137" s="351" t="str">
         <v>Inferno client app does not receive code parameter redirect URI</v>
       </c>
-      <c r="E1136" s="351" t="str">
+      <c r="E1137" s="351" t="str">
         <v xml:space="preserve">Inferno redirected the user to the authorization service with an invalid AUD.
 Inferno expects that the authorization request will not succeed.  This can
 either be from the server explicitely pass an error, or stopping and the
 tester returns to Inferno to confirm that the server presented them a failure.</v>
       </c>
-      <c r="F1136" s="351" t="str">
+      <c r="F1137" s="351" t="str">
         <v>AUT-PAT-13</v>
       </c>
     </row>
-    <row r="1137" spans="2:2" customFormat="false">
-      <c r="B1137" s="0" t="str">
+    <row r="1138" spans="2:2" customFormat="false">
+      <c r="B1138" s="0" t="str">
         <v>9.5: SMART App Launch Error: Invalid Access Token Request</v>
       </c>
     </row>
-    <row r="1138" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1138" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1138" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1138" s="351" t="str">
+    <row r="1139" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1139" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1139" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1139" s="351" t="str">
         <v>9.5.01</v>
       </c>
-      <c r="D1138" s="351" t="str">
+      <c r="D1139" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1138" s="351" t="str">
+      <c r="E1139" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.</v>
       </c>
-      <c r="F1138" s="351" t="str">
-        <v>AUT-PAT-18</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1139" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1139" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1139" s="351" t="str">
-        <v>9.5.02</v>
-      </c>
-      <c r="D1139" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1139" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1139" s="351" t="str">
         <v>AUT-PAT-18</v>
       </c>
     </row>
-    <row r="1140" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+    <row r="1140" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1140" s="351" t="str">
         <v/>
       </c>
@@ -63107,14 +63115,13 @@
         <v/>
       </c>
       <c r="C1140" s="351" t="str">
-        <v>9.5.03</v>
+        <v>9.5.02</v>
       </c>
       <c r="D1140" s="351" t="str">
-        <v xml:space="preserve"> OAuth token exchange fails when supplied invalid code</v>
+        <v>OAuth server sends code parameter</v>
       </c>
       <c r="E1140" s="351" t="str">
-        <v xml:space="preserve">If the request failed verification or is invalid, the authorization
-server returns an error response.</v>
+        <v>Code is a required querystring parameter on the redirect.</v>
       </c>
       <c r="F1140" s="351" t="str">
         <v>AUT-PAT-18</v>
@@ -63128,10 +63135,10 @@
         <v/>
       </c>
       <c r="C1141" s="351" t="str">
-        <v>9.5.04</v>
+        <v>9.5.03</v>
       </c>
       <c r="D1141" s="351" t="str">
-        <v>OAuth token exchange fails when supplied invalid client ID</v>
+        <v xml:space="preserve"> OAuth token exchange fails when supplied invalid code</v>
       </c>
       <c r="E1141" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
@@ -63141,25 +63148,46 @@
         <v>AUT-PAT-18</v>
       </c>
     </row>
-    <row r="1142" spans="2:2" customFormat="false">
-      <c r="B1142" s="0" t="str">
+    <row r="1142" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1142" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1142" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1142" s="351" t="str">
+        <v>9.5.04</v>
+      </c>
+      <c r="D1142" s="351" t="str">
+        <v>OAuth token exchange fails when supplied invalid client ID</v>
+      </c>
+      <c r="E1142" s="351" t="str">
+        <v xml:space="preserve">If the request failed verification or is invalid, the authorization
+server returns an error response.</v>
+      </c>
+      <c r="F1142" s="351" t="str">
+        <v>AUT-PAT-18</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:2" customFormat="false">
+      <c r="B1143" s="0" t="str">
         <v>9.6: SMART App Launch Error: Invalid Access Token Request</v>
       </c>
     </row>
-    <row r="1143" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1143" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1143" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1143" s="351" t="str">
+    <row r="1144" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1144" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1144" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1144" s="351" t="str">
         <v>9.6.01</v>
       </c>
-      <c r="D1143" s="351" t="str">
+      <c r="D1144" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1143" s="351" t="str">
+      <c r="E1144" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63167,31 +63195,11 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1143" s="351" t="str">
-        <v>AUT-PAT-18</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1144" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1144" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1144" s="351" t="str">
-        <v>9.6.02</v>
-      </c>
-      <c r="D1144" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1144" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1144" s="351" t="str">
         <v>AUT-PAT-18</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+    <row r="1145" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1145" s="351" t="str">
         <v/>
       </c>
@@ -63199,14 +63207,13 @@
         <v/>
       </c>
       <c r="C1145" s="351" t="str">
-        <v>9.6.03</v>
+        <v>9.6.02</v>
       </c>
       <c r="D1145" s="351" t="str">
-        <v xml:space="preserve"> OAuth token exchange fails when supplied invalid code</v>
+        <v>OAuth server sends code parameter</v>
       </c>
       <c r="E1145" s="351" t="str">
-        <v xml:space="preserve">If the request failed verification or is invalid, the authorization
-server returns an error response.</v>
+        <v>Code is a required querystring parameter on the redirect.</v>
       </c>
       <c r="F1145" s="351" t="str">
         <v>AUT-PAT-18</v>
@@ -63220,10 +63227,10 @@
         <v/>
       </c>
       <c r="C1146" s="351" t="str">
-        <v>9.6.04</v>
+        <v>9.6.03</v>
       </c>
       <c r="D1146" s="351" t="str">
-        <v>OAuth token exchange fails when supplied invalid client ID</v>
+        <v xml:space="preserve"> OAuth token exchange fails when supplied invalid code</v>
       </c>
       <c r="E1146" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
@@ -63233,25 +63240,46 @@
         <v>AUT-PAT-18</v>
       </c>
     </row>
-    <row r="1147" spans="2:2" customFormat="false">
-      <c r="B1147" s="0" t="str">
+    <row r="1147" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1147" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1147" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1147" s="351" t="str">
+        <v>9.6.04</v>
+      </c>
+      <c r="D1147" s="351" t="str">
+        <v>OAuth token exchange fails when supplied invalid client ID</v>
+      </c>
+      <c r="E1147" s="351" t="str">
+        <v xml:space="preserve">If the request failed verification or is invalid, the authorization
+server returns an error response.</v>
+      </c>
+      <c r="F1147" s="351" t="str">
+        <v>AUT-PAT-18</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:2" customFormat="false">
+      <c r="B1148" s="0" t="str">
         <v>9.7: SMART App Launch Error: Invalid PKCE Code Verifier</v>
       </c>
     </row>
-    <row r="1148" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1148" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1148" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1148" s="351" t="str">
+    <row r="1149" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1149" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1149" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1149" s="351" t="str">
         <v>9.7.01</v>
       </c>
-      <c r="D1148" s="351" t="str">
+      <c r="D1149" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1148" s="351" t="str">
+      <c r="E1149" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63259,65 +63287,65 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1148" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1149" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1149" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1149" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1149" s="351" t="str">
+      <c r="F1149" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1150" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1150" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1150" s="351" t="str">
         <v>9.7.02</v>
       </c>
-      <c r="D1149" s="351" t="str">
+      <c r="D1150" s="351" t="str">
         <v>OAuth server sends code parameter</v>
       </c>
-      <c r="E1149" s="351" t="str">
+      <c r="E1150" s="351" t="str">
         <v>Code is a required querystring parameter on the redirect.</v>
       </c>
-      <c r="F1149" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1150" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1150" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1150" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1150" s="351" t="str">
+      <c r="F1150" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1151" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1151" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1151" s="351" t="str">
         <v>9.7.03</v>
       </c>
-      <c r="D1150" s="351" t="str">
+      <c r="D1151" s="351" t="str">
         <v>OAuth token exchange fails when no code_verifier is given</v>
       </c>
-      <c r="E1150" s="351" t="str">
+      <c r="E1151" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
 server returns an error response.</v>
       </c>
-      <c r="F1150" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1151" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1151" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1151" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1151" s="351" t="str">
+      <c r="F1151" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1152" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1152" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1152" s="351" t="str">
         <v>9.7.04</v>
       </c>
-      <c r="D1151" s="351" t="str">
+      <c r="D1152" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1151" s="351" t="str">
+      <c r="E1152" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63325,65 +63353,65 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1151" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1152" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1152" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1152" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1152" s="351" t="str">
+      <c r="F1152" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1153" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1153" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1153" s="351" t="str">
         <v>9.7.05</v>
       </c>
-      <c r="D1152" s="351" t="str">
+      <c r="D1153" s="351" t="str">
         <v>OAuth server sends code parameter</v>
       </c>
-      <c r="E1152" s="351" t="str">
+      <c r="E1153" s="351" t="str">
         <v>Code is a required querystring parameter on the redirect.</v>
       </c>
-      <c r="F1152" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1153" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1153" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1153" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1153" s="351" t="str">
+      <c r="F1153" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1154" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1154" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1154" s="351" t="str">
         <v>9.7.06</v>
       </c>
-      <c r="D1153" s="351" t="str">
+      <c r="D1154" s="351" t="str">
         <v>OAuth token exchange fails when code_verifier is blank</v>
       </c>
-      <c r="E1153" s="351" t="str">
+      <c r="E1154" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
 server returns an error response.</v>
       </c>
-      <c r="F1153" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1154" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1154" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1154" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1154" s="351" t="str">
+      <c r="F1154" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1155" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1155" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1155" s="351" t="str">
         <v>9.7.07</v>
       </c>
-      <c r="D1154" s="351" t="str">
+      <c r="D1155" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1154" s="351" t="str">
+      <c r="E1155" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63391,65 +63419,65 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1154" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1155" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1155" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1155" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1155" s="351" t="str">
+      <c r="F1155" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1156" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1156" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1156" s="351" t="str">
         <v>9.7.08</v>
       </c>
-      <c r="D1155" s="351" t="str">
+      <c r="D1156" s="351" t="str">
         <v>OAuth server sends code parameter</v>
       </c>
-      <c r="E1155" s="351" t="str">
+      <c r="E1156" s="351" t="str">
         <v>Code is a required querystring parameter on the redirect.</v>
       </c>
-      <c r="F1155" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1156" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1156" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1156" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1156" s="351" t="str">
+      <c r="F1156" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1157" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1157" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1157" s="351" t="str">
         <v>9.7.09</v>
       </c>
-      <c r="D1156" s="351" t="str">
+      <c r="D1157" s="351" t="str">
         <v>OAuth token exchange fails when code_verifier is incorrect</v>
       </c>
-      <c r="E1156" s="351" t="str">
+      <c r="E1157" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
 server returns an error response.</v>
       </c>
-      <c r="F1156" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1157" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1157" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1157" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1157" s="351" t="str">
+      <c r="F1157" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1158" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1158" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1158" s="351" t="str">
         <v>9.7.10</v>
       </c>
-      <c r="D1157" s="351" t="str">
+      <c r="D1158" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1157" s="351" t="str">
+      <c r="E1158" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63457,344 +63485,328 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1157" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1158" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1158" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1158" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1158" s="351" t="str">
+      <c r="F1158" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1159" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1159" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1159" s="351" t="str">
         <v>9.7.11</v>
       </c>
-      <c r="D1158" s="351" t="str">
+      <c r="D1159" s="351" t="str">
         <v>OAuth server sends code parameter</v>
       </c>
-      <c r="E1158" s="351" t="str">
+      <c r="E1159" s="351" t="str">
         <v>Code is a required querystring parameter on the redirect.</v>
       </c>
-      <c r="F1158" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1159" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1159" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1159" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1159" s="351" t="str">
+      <c r="F1159" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1160" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1160" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1160" s="351" t="str">
         <v>9.7.12</v>
       </c>
-      <c r="D1159" s="351" t="str">
+      <c r="D1160" s="351" t="str">
         <v>OAuth token exchange fails when code_verifier matches code_challenge</v>
       </c>
-      <c r="E1159" s="351" t="str">
+      <c r="E1160" s="351" t="str">
         <v xml:space="preserve">If the request failed verification or is invalid, the authorization
 server returns an error response.</v>
       </c>
-      <c r="F1159" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1160" spans="2:2" customFormat="false">
-      <c r="B1160" s="0" t="str">
+      <c r="F1160" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" customFormat="false">
+      <c r="B1161" s="0" t="str">
         <v>9.8: EHR Launch with Patient Scopes</v>
       </c>
     </row>
-    <row r="1161" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1161" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1161" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1161" s="351" t="str">
+    <row r="1162" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1162" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1162" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1162" s="351" t="str">
         <v>9.8.01</v>
       </c>
-      <c r="D1161" s="351" t="str">
+      <c r="D1162" s="351" t="str">
         <v>EHR server redirects client browser to Inferno app launch URI</v>
       </c>
-      <c r="E1161" s="351" t="str">
+      <c r="E1162" s="351" t="str">
         <v xml:space="preserve">Client browser sent from EHR server to app launch URI of client app as
 described in SMART EHR Launch Sequence.</v>
       </c>
-      <c r="F1161" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1162" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1162" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1162" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1162" s="351" t="str">
+      <c r="F1162" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1163" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1163" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1163" s="351" t="str">
         <v>9.8.02</v>
       </c>
-      <c r="D1162" s="351" t="str">
+      <c r="D1163" s="351" t="str">
         <v>EHR server sends launch parameter</v>
       </c>
-      <c r="E1162" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
-      <c r="F1162" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1163" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1163" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1163" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1163" s="351" t="str">
+      <c r="E1163" s="351" t="str">
+        <v xml:space="preserve">The `launch` URL parameter associates the app's authorization request with
+the current EHR session.</v>
+      </c>
+      <c r="F1163" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1164" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1164" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1164" s="351" t="str">
         <v>9.8.03</v>
       </c>
-      <c r="D1163" s="351" t="str">
+      <c r="D1164" s="351" t="str">
         <v>OAuth 2.0 authorize endpoint secured by transport layer security</v>
       </c>
-      <c r="E1163" s="351" t="str">
+      <c r="E1164" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1163" s="351" t="str">
+      <c r="F1164" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1164" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1164" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1164" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1164" s="351" t="str">
+    <row r="1165" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1165" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1165" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1165" s="351" t="str">
         <v>9.8.04</v>
       </c>
-      <c r="D1164" s="351" t="str">
+      <c r="D1165" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1164" s="351" t="str">
+      <c r="E1165" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.</v>
       </c>
-      <c r="F1164" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1165" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1165" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1165" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1165" s="351" t="str">
+      <c r="F1165" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1166" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1166" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1166" s="351" t="str">
         <v>9.8.05</v>
       </c>
-      <c r="D1165" s="351" t="str">
+      <c r="D1166" s="351" t="str">
         <v>OAuth server sends code parameter</v>
       </c>
-      <c r="E1165" s="351" t="str">
+      <c r="E1166" s="351" t="str">
         <v>Code is a required querystring parameter on the redirect.</v>
       </c>
-      <c r="F1165" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1166" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1166" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1166" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1166" s="351" t="str">
+      <c r="F1166" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1167" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1167" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1167" s="351" t="str">
         <v>9.8.06</v>
       </c>
-      <c r="D1166" s="351" t="str">
+      <c r="D1167" s="351" t="str">
         <v>OAuth 2.0 token endpoint secured by transport layer security</v>
       </c>
-      <c r="E1166" s="351" t="str">
+      <c r="E1167" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1166" s="351" t="str">
+      <c r="F1167" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1167" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1167" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1167" s="351" t="str">
+    <row r="1168" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1168" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1168" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1168" s="351" t="str">
         <v>9.8.07</v>
       </c>
-      <c r="D1167" s="351" t="str">
+      <c r="D1168" s="351" t="str">
         <v>OAuth token exchange request succeeds when supplied correct information</v>
       </c>
-      <c r="E1167" s="351" t="str">
+      <c r="E1168" s="351" t="str">
         <v xml:space="preserve">After obtaining an authorization code, the app trades the code for an
 access token via HTTP POST to the EHR authorization server's token
 endpoint URL, using content-type application/x-www-form-urlencoded, as
 described in section [4.1.3 of
 RFC6749](https://tools.ietf.org/html/rfc6749#section-4.1.3).</v>
       </c>
-      <c r="F1167" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1168" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1168" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1168" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1168" s="351" t="str">
+      <c r="F1168" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1169" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1169" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1169" s="351" t="str">
         <v>9.8.08</v>
       </c>
-      <c r="D1168" s="351" t="str">
+      <c r="D1169" s="351" t="str">
         <v>Token exchange response body contains required information encoded in JSON</v>
       </c>
-      <c r="E1168" s="351" t="str">
+      <c r="E1169" s="351" t="str">
         <v xml:space="preserve">The EHR authorization server shall return a JSON structure that includes
 an access token or a message indicating that the authorization request
 has been denied. `access_token`, `token_type`, and `scope` are required.
 `token_type` must be Bearer. `expires_in` is required for token
 refreshes.</v>
       </c>
-      <c r="F1168" s="351" t="str">
+      <c r="F1169" s="351" t="str">
         <v>AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1169" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1169" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1169" s="351" t="str">
+    <row r="1170" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1170" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1170" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1170" s="351" t="str">
         <v>9.8.09</v>
       </c>
-      <c r="D1169" s="351" t="str">
+      <c r="D1170" s="351" t="str">
         <v>Response includes correct HTTP Cache-Control and Pragma headers</v>
       </c>
-      <c r="E1169" s="351" t="str">
+      <c r="E1170" s="351" t="str">
         <v xml:space="preserve">The authorization servers response must include the HTTP Cache-Control
 response header field with a value of no-store, as well as the Pragma
 response header field with a value of no-cache.</v>
       </c>
-      <c r="F1169" s="351" t="str">
+      <c r="F1170" s="351" t="str">
         <v>AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1170" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1170" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1170" s="351" t="str">
+    <row r="1171" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1171" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1171" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1171" s="351" t="str">
         <v>9.8.10</v>
       </c>
-      <c r="D1170" s="351" t="str">
+      <c r="D1171" s="351" t="str">
         <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
       </c>
-      <c r="E1170" s="351" t="str">
+      <c r="E1171" s="351" t="str">
         <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
 the app was launched in the context of this FHIR Patient.</v>
       </c>
-      <c r="F1170" s="351" t="str">
+      <c r="F1171" s="351" t="str">
         <v>AUT-PAT-19</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1171" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1171" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1171" s="351" t="str">
+    <row r="1172" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
+      <c r="A1172" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1172" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1172" s="351" t="str">
         <v>9.8.11</v>
       </c>
-      <c r="D1171" s="351" t="str">
+      <c r="D1172" s="351" t="str">
         <v>Patient-level scopes were granted</v>
       </c>
-      <c r="E1171" s="351" t="str">
-        <v xml:space="preserve">Systems are required to support the `permission-patient` capability as
-part of the [Clinician Access for EHR Launch Capability
-Set.](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
-This test verifies that systems are capable of granting patient-level
-scopes during an EHR Launch.</v>
-      </c>
-      <c r="F1171" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1172" spans="2:2" customFormat="false">
-      <c r="B1172" s="0" t="str">
+      <c r="E1172" s="351" t="str">
+        <v xml:space="preserve">stems are required to support the `permission-patient` capability as
+rt of the Clinician Access for EHR Launch Capability Set.
+is test verifies that systems are capable of granting patient-level
+opes during an EHR Launch.
+[Clinician Access for EHR Launch Capability Set STU
+1](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
+[Clinician Access for EHR Launch Capability Set STU
+2](http://hl7.org/fhir/smart-app-launch/STU2/conformance.html#clinician-access-for-ehr-launch)</v>
+      </c>
+      <c r="F1172" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" customFormat="false">
+      <c r="B1173" s="0" t="str">
         <v>9.9: EHR Launch with Patient Scopes</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1173" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1173" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1173" s="351" t="str">
+    <row r="1174" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1174" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1174" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1174" s="351" t="str">
         <v>9.9.01</v>
       </c>
-      <c r="D1173" s="351" t="str">
+      <c r="D1174" s="351" t="str">
         <v>EHR server redirects client browser to Inferno app launch URI</v>
       </c>
-      <c r="E1173" s="351" t="str">
+      <c r="E1174" s="351" t="str">
         <v xml:space="preserve">Client browser sent from EHR server to app launch URI of client app as
 described in SMART EHR Launch Sequence.</v>
       </c>
-      <c r="F1173" s="351" t="str">
-        <v>AUT-PAT-29</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1174" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1174" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1174" s="351" t="str">
-        <v>9.9.02</v>
-      </c>
-      <c r="D1174" s="351" t="str">
-        <v>EHR server sends launch parameter</v>
-      </c>
-      <c r="E1174" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1174" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1175" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
       <c r="A1175" s="351" t="str">
         <v/>
       </c>
@@ -63802,34 +63814,55 @@
         <v/>
       </c>
       <c r="C1175" s="351" t="str">
+        <v>9.9.02</v>
+      </c>
+      <c r="D1175" s="351" t="str">
+        <v>EHR server sends launch parameter</v>
+      </c>
+      <c r="E1175" s="351" t="str">
+        <v xml:space="preserve">The `launch` URL parameter associates the app's authorization request with
+the current EHR session.</v>
+      </c>
+      <c r="F1175" s="351" t="str">
+        <v>AUT-PAT-29</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1176" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1176" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1176" s="351" t="str">
         <v>9.9.03</v>
       </c>
-      <c r="D1175" s="351" t="str">
+      <c r="D1176" s="351" t="str">
         <v>OAuth 2.0 authorize endpoint secured by transport layer security</v>
       </c>
-      <c r="E1175" s="351" t="str">
+      <c r="E1176" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1175" s="351" t="str">
+      <c r="F1176" s="351" t="str">
         <v>SEC-CNN-1, AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1176" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1176" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1176" s="351" t="str">
+    <row r="1177" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1177" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1177" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1177" s="351" t="str">
         <v>9.9.04</v>
       </c>
-      <c r="D1176" s="351" t="str">
+      <c r="D1177" s="351" t="str">
         <v>OAuth server redirects client browser to app redirect URI</v>
       </c>
-      <c r="E1176" s="351" t="str">
+      <c r="E1177" s="351" t="str">
         <v xml:space="preserve">Client browser redirected from OAuth server to redirect URI of client
 app as described in SMART authorization sequence.
 Client SHALL use either the HTTP GET or the HTTP POST method to send the
@@ -63837,31 +63870,11 @@
 [Authorization Code
 Request](http://hl7.org/fhir/smart-app-launch/STU2/app-launch.html#request-4)</v>
       </c>
-      <c r="F1176" s="351" t="str">
-        <v>AUT-PAT-29</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1177" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1177" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1177" s="351" t="str">
-        <v>9.9.05</v>
-      </c>
-      <c r="D1177" s="351" t="str">
-        <v>OAuth server sends code parameter</v>
-      </c>
-      <c r="E1177" s="351" t="str">
-        <v>Code is a required querystring parameter on the redirect.</v>
-      </c>
       <c r="F1177" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+    <row r="1178" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
       <c r="A1178" s="351" t="str">
         <v/>
       </c>
@@ -63869,366 +63882,389 @@
         <v/>
       </c>
       <c r="C1178" s="351" t="str">
+        <v>9.9.05</v>
+      </c>
+      <c r="D1178" s="351" t="str">
+        <v>OAuth server sends code parameter</v>
+      </c>
+      <c r="E1178" s="351" t="str">
+        <v>Code is a required querystring parameter on the redirect.</v>
+      </c>
+      <c r="F1178" s="351" t="str">
+        <v>AUT-PAT-29</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1179" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1179" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1179" s="351" t="str">
         <v>9.9.06</v>
       </c>
-      <c r="D1178" s="351" t="str">
+      <c r="D1179" s="351" t="str">
         <v>OAuth 2.0 token endpoint secured by transport layer security</v>
       </c>
-      <c r="E1178" s="351" t="str">
+      <c r="E1179" s="351" t="str">
         <v xml:space="preserve">Apps MUST assure that sensitive information (authentication secrets,
 authorization codes, tokens) is transmitted ONLY to authenticated
 servers, over TLS-secured channels.</v>
       </c>
-      <c r="F1178" s="351" t="str">
+      <c r="F1179" s="351" t="str">
         <v>SEC-CNN-1, AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1179" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1179" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1179" s="351" t="str">
+    <row r="1180" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1180" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1180" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1180" s="351" t="str">
         <v>9.9.07</v>
       </c>
-      <c r="D1179" s="351" t="str">
+      <c r="D1180" s="351" t="str">
         <v>OAuth token exchange request succeeds when supplied correct information</v>
       </c>
-      <c r="E1179" s="351" t="str">
+      <c r="E1180" s="351" t="str">
         <v xml:space="preserve">After obtaining an authorization code, the app trades the code for an
 access token via HTTP POST to the EHR authorization server's token
 endpoint URL, using content-type application/x-www-form-urlencoded, as
 described in section [4.1.3 of
 RFC6749](https://tools.ietf.org/html/rfc6749#section-4.1.3).</v>
       </c>
-      <c r="F1179" s="351" t="str">
+      <c r="F1180" s="351" t="str">
         <v>AUT-PAT-29</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1180" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1180" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1180" s="351" t="str">
+    <row r="1181" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1181" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1181" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1181" s="351" t="str">
         <v>9.9.08</v>
       </c>
-      <c r="D1180" s="351" t="str">
+      <c r="D1181" s="351" t="str">
         <v>Token exchange response body contains required information encoded in JSON</v>
       </c>
-      <c r="E1180" s="351" t="str">
+      <c r="E1181" s="351" t="str">
         <v xml:space="preserve">The EHR authorization server shall return a JSON structure that includes
 an access token or a message indicating that the authorization request
 has been denied. `access_token`, `token_type`, and `scope` are required.
 `token_type` must be Bearer. `expires_in` is required for token
 refreshes.</v>
       </c>
-      <c r="F1180" s="351" t="str">
+      <c r="F1181" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1181" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1181" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1181" s="351" t="str">
+    <row r="1182" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1182" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1182" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1182" s="351" t="str">
         <v>9.9.09</v>
       </c>
-      <c r="D1181" s="351" t="str">
+      <c r="D1182" s="351" t="str">
         <v>Response includes correct HTTP Cache-Control and Pragma headers</v>
       </c>
-      <c r="E1181" s="351" t="str">
+      <c r="E1182" s="351" t="str">
         <v xml:space="preserve">The authorization servers response must include the HTTP Cache-Control
 response header field with a value of no-store, as well as the Pragma
 response header field with a value of no-cache.</v>
       </c>
-      <c r="F1181" s="351" t="str">
+      <c r="F1182" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-16</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1182" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1182" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1182" s="351" t="str">
+    <row r="1183" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1183" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1183" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1183" s="351" t="str">
         <v>9.9.10</v>
       </c>
-      <c r="D1182" s="351" t="str">
+      <c r="D1183" s="351" t="str">
         <v>OAuth token exchange response body contains patient context and patient resource can be retrieved</v>
       </c>
-      <c r="E1182" s="351" t="str">
+      <c r="E1183" s="351" t="str">
         <v xml:space="preserve">The `patient` field is a String value with a patient id, indicating that
 the app was launched in the context of this FHIR Patient.</v>
       </c>
-      <c r="F1182" s="351" t="str">
+      <c r="F1183" s="351" t="str">
         <v>AUT-PAT-29, AUT-PAT-19</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1183" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1183" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1183" s="351" t="str">
+    <row r="1184" spans="1:6" s="350" customFormat="1" ht="110" customHeight="1">
+      <c r="A1184" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1184" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1184" s="351" t="str">
         <v>9.9.11</v>
       </c>
-      <c r="D1183" s="351" t="str">
+      <c r="D1184" s="351" t="str">
         <v>Patient-level scopes were granted</v>
       </c>
-      <c r="E1183" s="351" t="str">
-        <v xml:space="preserve">Systems are required to support the `permission-patient` capability as
-part of the [Clinician Access for EHR Launch Capability
-Set.](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
-This test verifies that systems are capable of granting patient-level
-scopes during an EHR Launch.</v>
-      </c>
-      <c r="F1183" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1184" spans="2:2" customFormat="false">
-      <c r="B1184" s="0" t="str">
+      <c r="E1184" s="351" t="str">
+        <v xml:space="preserve">stems are required to support the `permission-patient` capability as
+rt of the Clinician Access for EHR Launch Capability Set.
+is test verifies that systems are capable of granting patient-level
+opes during an EHR Launch.
+[Clinician Access for EHR Launch Capability Set STU
+1](http://hl7.org/fhir/smart-app-launch/1.0.0/conformance/index.html#clinician-access-for-ehr-launch)
+[Clinician Access for EHR Launch Capability Set STU
+2](http://hl7.org/fhir/smart-app-launch/STU2/conformance.html#clinician-access-for-ehr-launch)</v>
+      </c>
+      <c r="F1184" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1185" spans="2:2" customFormat="false">
+      <c r="B1185" s="0" t="str">
         <v>9.10: Visual Inspection and Attestation</v>
       </c>
     </row>
-    <row r="1185" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1185" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1185" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1185" s="351" t="str">
+    <row r="1186" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1186" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1186" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1186" s="351" t="str">
         <v>9.10.01</v>
       </c>
-      <c r="D1185" s="351" t="str">
+      <c r="D1186" s="351" t="str">
         <v>Health IT Module demonstrated support for application registration for single patients.</v>
       </c>
-      <c r="E1185" s="351" t="str">
+      <c r="E1186" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated support for application registration for
 single patients.</v>
       </c>
-      <c r="F1185" s="351" t="str">
+      <c r="F1186" s="351" t="str">
         <v>APP-REG-1</v>
       </c>
     </row>
-    <row r="1186" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1186" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1186" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1186" s="351" t="str">
+    <row r="1187" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1187" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1187" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1187" s="351" t="str">
         <v>9.10.02</v>
       </c>
-      <c r="D1186" s="351" t="str">
+      <c r="D1187" s="351" t="str">
         <v>Health IT Module demonstrated support for application registration for multiple patients.</v>
       </c>
-      <c r="E1186" s="351" t="str">
+      <c r="E1187" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated support for supports application
 registration for multiple patients.</v>
       </c>
-      <c r="F1186" s="351" t="str">
+      <c r="F1187" s="351" t="str">
         <v>APP-REG-2</v>
       </c>
     </row>
-    <row r="1187" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1187" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1187" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1187" s="351" t="str">
+    <row r="1188" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1188" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1188" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1188" s="351" t="str">
         <v>9.10.03</v>
       </c>
-      <c r="D1187" s="351" t="str">
+      <c r="D1188" s="351" t="str">
         <v>Health IT Module demonstrated a graphical user interface for user to authorize FHIR resources.</v>
       </c>
-      <c r="E1187" s="351" t="str">
+      <c r="E1188" s="351" t="str">
         <v xml:space="preserve">Health IT Module demonstrated a graphical user interface for user to
 authorize FHIR resources</v>
       </c>
-      <c r="F1187" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1188" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1188" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1188" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1188" s="351" t="str">
+      <c r="F1188" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1189" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1189" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1189" s="351" t="str">
         <v>9.10.04</v>
       </c>
-      <c r="D1188" s="351" t="str">
+      <c r="D1189" s="351" t="str">
         <v>Health IT Module informed patient when "offline_access" scope is being granted during authorization.</v>
       </c>
-      <c r="E1188" s="351" t="str">
+      <c r="E1189" s="351" t="str">
         <v xml:space="preserve">Health IT Module informed patient when "offline_access" scope is being
 granted during authorization.</v>
       </c>
-      <c r="F1188" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1189" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
-      <c r="A1189" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1189" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1189" s="351" t="str">
+      <c r="F1189" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" s="350" customFormat="1" ht="60" customHeight="1">
+      <c r="A1190" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1190" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1190" s="351" t="str">
         <v>9.10.05</v>
       </c>
-      <c r="D1189" s="351" t="str">
+      <c r="D1190" s="351" t="str">
         <v>Health IT Module attested that it is capable of issuing refresh tokens that are valid for a period of no shorter than three months.</v>
       </c>
-      <c r="E1189" s="351" t="str">
+      <c r="E1190" s="351" t="str">
         <v xml:space="preserve">Health IT Module attested that it is capable of issuing refresh tokens
 that are valid for a period of no shorter than three months.
 This attestation is necessary because automated tests cannot determine how long
 the refresh token remains valid.</v>
       </c>
-      <c r="F1189" s="351" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="1190" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1190" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1190" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1190" s="351" t="str">
+      <c r="F1190" s="351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1191" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1191" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1191" s="351" t="str">
         <v>9.10.06</v>
       </c>
-      <c r="D1190" s="351" t="str">
+      <c r="D1191" s="351" t="str">
         <v>Health IT developer demonstrated the ability of the Health IT Module / authorization server to validate token it has issued.</v>
       </c>
-      <c r="E1190" s="351" t="str">
+      <c r="E1191" s="351" t="str">
         <v xml:space="preserve">Health IT developer demonstrated the ability of the Health IT Module /
 authorization server to validate token it has issued</v>
       </c>
-      <c r="F1190" s="351" t="str">
+      <c r="F1191" s="351" t="str">
         <v>TOK-INTRO-1</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
-      <c r="A1191" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1191" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1191" s="351" t="str">
+    <row r="1192" spans="1:6" s="350" customFormat="1" ht="26" customHeight="1">
+      <c r="A1192" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1192" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1192" s="351" t="str">
         <v>9.10.07</v>
       </c>
-      <c r="D1191" s="351" t="str">
+      <c r="D1192" s="351" t="str">
         <v>Tester verifies that all information is accurate and without omission.</v>
       </c>
-      <c r="E1191" s="351" t="str">
+      <c r="E1192" s="351" t="str">
         <v>Tester verifies that all information is accurate and without omission.</v>
       </c>
-      <c r="F1191" s="351" t="str">
+      <c r="F1192" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1192" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1192" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1192" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1192" s="351" t="str">
+    <row r="1193" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1193" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1193" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1193" s="351" t="str">
         <v>9.10.08</v>
       </c>
-      <c r="D1192" s="351" t="str">
+      <c r="D1193" s="351" t="str">
         <v>Information returned no greater than scopes pre-authorized for multi-patient queries.</v>
       </c>
-      <c r="E1192" s="351" t="str">
+      <c r="E1193" s="351" t="str">
         <v xml:space="preserve">Information returned no greater than scopes pre-authorized for
 multi-patient queries.</v>
       </c>
-      <c r="F1192" s="351" t="str">
+      <c r="F1193" s="351" t="str">
         <v>AUT-SYS-8</v>
       </c>
     </row>
-    <row r="1193" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
-      <c r="A1193" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1193" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1193" s="351" t="str">
+    <row r="1194" spans="1:6" s="350" customFormat="1" ht="30" customHeight="1">
+      <c r="A1194" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1194" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1194" s="351" t="str">
         <v>9.10.09</v>
       </c>
-      <c r="D1193" s="351" t="str">
+      <c r="D1194" s="351" t="str">
         <v>Health IT developer demonstrated the documentation is available at a publicly accessible URL.</v>
       </c>
-      <c r="E1193" s="351" t="str">
+      <c r="E1194" s="351" t="str">
         <v xml:space="preserve">Health IT developer demonstrated the documentation is available at a
 publicly accessible URL.</v>
       </c>
-      <c r="F1193" s="351" t="str">
+      <c r="F1194" s="351" t="str">
         <v>API-DOC-1, API-DOC-2</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1194" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1194" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1194" s="351" t="str">
+    <row r="1195" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1195" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1195" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1195" s="351" t="str">
         <v>9.10.10</v>
       </c>
-      <c r="D1194" s="351" t="str">
+      <c r="D1195" s="351" t="str">
         <v>Health IT developer confirms the Health IT Module does not cache the JWK Set received via a TLS-protected URL for longer than the cache-control header received by an application indicates.</v>
       </c>
-      <c r="E1194" s="351" t="str">
+      <c r="E1195" s="351" t="str">
         <v xml:space="preserve">The Health IT developer confirms the Health IT Module does not cache the
 JWK Set received via a TLS-protected URL for longer than the
 cache-control header indicates.</v>
       </c>
-      <c r="F1194" s="351" t="str">
+      <c r="F1195" s="351" t="str">
         <v>AUT-SYS-5</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1195" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1195" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1195" s="351" t="str">
+    <row r="1196" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1196" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1196" s="351" t="str">
         <v>9.10.11</v>
       </c>
-      <c r="D1195" s="351" t="str">
+      <c r="D1196" s="351" t="str">
         <v>Health IT developer demonstrates support for the Patient Demographics Suffix USCDI v1 element.</v>
       </c>
-      <c r="E1195" s="351" t="str">
+      <c r="E1196" s="351" t="str">
         <v xml:space="preserve">ONC certification criteria states that all USCDI v1 data classes and
 elements need to be supported, including Patient Demographics -
 Suffix.However, US Core v3.1.1 does not tag the relevant element
@@ -64236,24 +64272,24 @@
 demonstrate support for this USCDI v1 element as described in the US
 Core Patient Profile implementation guidance.</v>
       </c>
-      <c r="F1195" s="351" t="str">
+      <c r="F1196" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1196" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1196" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1196" s="351" t="str">
+    <row r="1197" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1197" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1197" s="351" t="str">
         <v>9.10.12</v>
       </c>
-      <c r="D1196" s="351" t="str">
+      <c r="D1197" s="351" t="str">
         <v>Health IT developer demonstrates support for the Patient Demographics Previous Name USCDI v1 element.</v>
       </c>
-      <c r="E1196" s="351" t="str">
+      <c r="E1197" s="351" t="str">
         <v xml:space="preserve">ONC certification criteria states that all USCDI v1 data classes and
 elements need to be supported, including Patient Demographics - Previous
 Name. However, US Core v3.1.1 does not tag the relevant element
@@ -64261,24 +64297,24 @@
 demonstrate support for this USCDI v1 element as described in the US
 Core Patient Profile implementation guidance.</v>
       </c>
-      <c r="F1196" s="351" t="str">
+      <c r="F1197" s="351" t="str">
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1197" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
-      <c r="A1197" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1197" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1197" s="351" t="str">
+    <row r="1198" spans="1:6" s="350" customFormat="1" ht="90" customHeight="1">
+      <c r="A1198" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1198" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1198" s="351" t="str">
         <v>9.10.13</v>
       </c>
-      <c r="D1197" s="351" t="str">
+      <c r="D1198" s="351" t="str">
         <v>Health IT developer demonstrates support for issuing refresh tokens to native applications.</v>
       </c>
-      <c r="E1197" s="351" t="str">
+      <c r="E1198" s="351" t="str">
         <v xml:space="preserve">The health IT developer demonstrates the ability of the Health IT Module
 to grant a refresh token valid for a period of no less than three months
 to native applications capable of storing a refresh token.
@@ -64287,70 +64323,70 @@
 OAuth 2.0 authorization flow to ensure authorization is sufficiently
 secure for native applications.</v>
       </c>
-      <c r="F1197" s="351" t="str">
+      <c r="F1198" s="351" t="str">
         <v>AUT-PAT-21</v>
       </c>
     </row>
-    <row r="1198" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
-      <c r="A1198" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1198" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1198" s="351" t="str">
+    <row r="1199" spans="1:6" s="350" customFormat="1" ht="40" customHeight="1">
+      <c r="A1199" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1199" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1199" s="351" t="str">
         <v>9.10.14</v>
       </c>
-      <c r="D1198" s="351" t="str">
+      <c r="D1199" s="351" t="str">
         <v>Health IT developer demonstrates the public location of its base URLs.</v>
       </c>
-      <c r="E1198" s="351" t="str">
+      <c r="E1199" s="351" t="str">
         <v xml:space="preserve">To fulfill the API Maintenance of Certification requirement at §
 170.404(b)(2), the health IT developer demonstrates the public location
 of its certified API technology service base URLs.</v>
       </c>
-      <c r="F1198" s="351" t="str">
+      <c r="F1199" s="351" t="str">
         <v>API-DOC-3</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
-      <c r="A1199" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1199" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1199" s="351" t="str">
+    <row r="1200" spans="1:6" s="350" customFormat="1" ht="70" customHeight="1">
+      <c r="A1200" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1200" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1200" s="351" t="str">
         <v>9.10.15</v>
       </c>
-      <c r="D1199" s="351" t="str">
+      <c r="D1200" s="351" t="str">
         <v>TLS version 1.2 or above must be enforced</v>
       </c>
-      <c r="E1199" s="351" t="str">
+      <c r="E1200" s="351" t="str">
         <v xml:space="preserve">If TLS connections below version 1.2 have been allowed in any previous
 tests, Health IT developers must document how the Health IT Module
 enforces TLS version 1.2 or above.
 If no TLS connections below version 1.2 have been allowed, no
 documentation is necessary and this test will automatically pass.</v>
       </c>
-      <c r="F1199" s="351" t="str">
+      <c r="F1200" s="351" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1200" spans="1:6" s="350" customFormat="1" ht="200" customHeight="1">
-      <c r="A1200" s="351" t="str">
-        <v/>
-      </c>
-      <c r="B1200" s="351" t="str">
-        <v/>
-      </c>
-      <c r="C1200" s="351" t="str">
+    <row r="1201" spans="1:6" s="350" customFormat="1" ht="200" customHeight="1">
+      <c r="A1201" s="351" t="str">
+        <v/>
+      </c>
+      <c r="B1201" s="351" t="str">
+        <v/>
+      </c>
+      <c r="C1201" s="351" t="str">
         <v>9.10.16</v>
       </c>
-      <c r="D1200" s="351" t="str">
+      <c r="D1201" s="351" t="str">
         <v>Health IT developer attested that the Health IT Module is capable of issuing refresh tokens valid for a new period of no shorter than three months without requiring re-authentication and re-authorization when a valid refresh token is supplied by the application.</v>
       </c>
-      <c r="E1200" s="351" t="str">
+      <c r="E1201" s="351" t="str">
         <v xml:space="preserve">Applications that are capable of storing a client secret and that have
 received a refresh token must be able to use this refresh token to
 either receive a new refresh token valid for a new period of no less
@@ -64369,7 +64405,7 @@
 issuing an initial refresh token that is valid for at least three
 months.</v>
       </c>
-      <c r="F1200" s="351" t="str">
+      <c r="F1201" s="351" t="str">
         <v>AUT-PAT-22</v>
       </c>
     </row>

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.6.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.7.0)</v>
       </c>
     </row>
     <row r="2" spans="3:150" s="3" customFormat="1" ht="20" customHeight="1">
@@ -37058,7 +37058,7 @@
         <v>yes</v>
       </c>
       <c r="H81" s="357" t="str">
-        <v>9.10.07, 9.10.11, 9.10.12, 4.2.08, 4.2.09, 4.3.04, 4.3.05, 4.4.04, 4.4.05, 4.5.04, 4.5.05, 4.6.04, 4.6.05, 4.7.04, 4.7.05, 4.8.07, 4.8.08, 4.9.07, 4.9.08, 4.10.08, 4.10.09, 4.11.04, 4.11.05, 4.12.04, 4.12.05, 4.13.06, 4.13.07, 4.14.04, 4.14.05, 4.15.06, 4.15.07, 4.16.06, 4.16.07, 4.17.06, 4.17.07, 4.18.06, 4.18.07, 4.19.06, 4.19.07, 4.20.06, 4.20.07, 4.21.06, 4.21.07, 4.22.06, 4.22.07, 4.23.06, 4.23.07, 4.24.06, 4.24.07, 4.25.06, 4.25.07, 4.26.05, 4.26.06, 4.27.02, 4.27.03, 4.28.02, 4.28.03, 4.29.02, 4.29.03, 4.30.02, 4.30.03, 5.2.08, 5.2.09, 5.3.04, 5.3.05, 5.4.04, 5.4.05, 5.5.04, 5.5.05, 5.6.04, 5.6.05, 5.7.04, 5.7.05, 5.8.07, 5.8.08, 5.9.07, 5.9.08, 5.10.08, 5.10.09, 5.11.04, 5.11.05, 5.12.04, 5.12.05, 5.13.06, 5.13.07, 5.14.06, 5.14.07, 5.15.06, 5.15.07, 5.16.06, 5.16.07, 5.17.06, 5.17.07, 5.18.06, 5.18.07, 5.19.06, 5.19.07, 5.20.06, 5.20.07, 5.21.06, 5.21.07, 5.22.06, 5.22.07, 5.23.06, 5.23.07, 5.24.06, 5.24.07, 5.25.06, 5.25.07, 5.26.05, 5.26.06, 5.27.06, 5.27.07, 5.28.05, 5.28.06, 5.29.02, 5.29.03, 5.30.02, 5.30.03, 5.31.02, 5.31.03, 5.32.02, 5.32.03, 6.2.08, 6.2.09, 6.3.04, 6.3.05, 6.4.04, 6.4.05, 6.5.04, 6.5.05, 6.6.04, 6.6.05, 6.7.04, 6.7.05, 6.8.05, 6.8.06, 6.9.07, 6.9.08, 6.10.07, 6.10.08, 6.11.08, 6.11.09, 6.12.06, 6.12.07, 6.13.04, 6.13.05, 6.14.04, 6.14.05, 6.15.06, 6.15.07, 6.16.06, 6.16.07, 6.17.06, 6.17.07, 6.18.06, 6.18.07, 6.19.06, 6.19.07, 6.20.06, 6.20.07, 6.21.06, 6.21.07, 6.22.06, 6.22.07, 6.23.06, 6.23.07, 6.24.06, 6.24.07, 6.25.04, 6.25.05, 6.26.06, 6.26.07, 6.27.06, 6.27.07, 6.28.06, 6.28.07, 6.29.06, 6.29.07, 6.30.06, 6.30.07, 6.31.06, 6.31.07, 6.32.06, 6.32.07, 6.33.06, 6.33.07, 6.34.06, 6.34.07, 6.35.05, 6.35.06, 6.36.08, 6.36.09, 6.37.02, 6.37.03, 6.38.02, 6.38.03, 6.39.02, 6.39.03, 6.40.02, 6.40.03, 7.3.03, 7.3.06, 7.3.07, 7.3.08, 7.3.09, 7.3.10, 7.3.11, 7.3.12, 7.3.13, 7.3.14, 7.3.15, 7.3.16, 7.3.17, 7.3.18, 7.3.19, 7.3.20, 7.3.21, 7.3.22, 7.3.23, 7.3.24, 7.3.25, 7.3.26, 7.3.27, 8.3.03, 8.3.06, 8.3.07, 8.3.08, 8.3.09, 8.3.10, 8.3.11, 8.3.12, 8.3.13, 8.3.14, 8.3.15, 8.3.16, 8.3.17, 8.3.18, 8.3.19, 8.3.20, 8.3.21, 8.3.22, 8.3.23, 8.3.24, 8.3.25, 8.3.26, 8.3.27</v>
+        <v>9.10.07, 9.10.11, 4.2.08, 4.2.09, 4.3.04, 4.3.05, 4.4.04, 4.4.05, 4.5.04, 4.5.05, 4.6.04, 4.6.05, 4.7.04, 4.7.05, 4.8.07, 4.8.08, 4.9.07, 4.9.08, 4.10.08, 4.10.09, 4.11.04, 4.11.05, 4.12.04, 4.12.05, 4.13.06, 4.13.07, 4.14.04, 4.14.05, 4.15.06, 4.15.07, 4.16.06, 4.16.07, 4.17.06, 4.17.07, 4.18.06, 4.18.07, 4.19.06, 4.19.07, 4.20.06, 4.20.07, 4.21.06, 4.21.07, 4.22.06, 4.22.07, 4.23.06, 4.23.07, 4.24.06, 4.24.07, 4.25.06, 4.25.07, 4.26.05, 4.26.06, 4.27.02, 4.27.03, 4.28.02, 4.28.03, 4.29.02, 4.29.03, 4.30.02, 4.30.03, 5.2.08, 5.2.09, 5.3.04, 5.3.05, 5.4.04, 5.4.05, 5.5.04, 5.5.05, 5.6.04, 5.6.05, 5.7.04, 5.7.05, 5.8.07, 5.8.08, 5.9.07, 5.9.08, 5.10.08, 5.10.09, 5.11.04, 5.11.05, 5.12.04, 5.12.05, 5.13.06, 5.13.07, 5.14.06, 5.14.07, 5.15.06, 5.15.07, 5.16.06, 5.16.07, 5.17.06, 5.17.07, 5.18.06, 5.18.07, 5.19.06, 5.19.07, 5.20.06, 5.20.07, 5.21.06, 5.21.07, 5.22.06, 5.22.07, 5.23.06, 5.23.07, 5.24.06, 5.24.07, 5.25.06, 5.25.07, 5.26.05, 5.26.06, 5.27.06, 5.27.07, 5.28.05, 5.28.06, 5.29.02, 5.29.03, 5.30.02, 5.30.03, 5.31.02, 5.31.03, 5.32.02, 5.32.03, 6.2.08, 6.2.09, 6.3.04, 6.3.05, 6.4.04, 6.4.05, 6.5.04, 6.5.05, 6.6.04, 6.6.05, 6.7.04, 6.7.05, 6.8.05, 6.8.06, 6.9.07, 6.9.08, 6.10.07, 6.10.08, 6.11.08, 6.11.09, 6.12.06, 6.12.07, 6.13.04, 6.13.05, 6.14.04, 6.14.05, 6.15.06, 6.15.07, 6.16.06, 6.16.07, 6.17.06, 6.17.07, 6.18.06, 6.18.07, 6.19.06, 6.19.07, 6.20.06, 6.20.07, 6.21.06, 6.21.07, 6.22.06, 6.22.07, 6.23.06, 6.23.07, 6.24.06, 6.24.07, 6.25.04, 6.25.05, 6.26.06, 6.26.07, 6.27.06, 6.27.07, 6.28.06, 6.28.07, 6.29.06, 6.29.07, 6.30.06, 6.30.07, 6.31.06, 6.31.07, 6.32.06, 6.32.07, 6.33.06, 6.33.07, 6.34.06, 6.34.07, 6.35.05, 6.35.06, 6.36.08, 6.36.09, 6.37.02, 6.37.03, 6.38.02, 6.38.03, 6.39.02, 6.39.03, 6.40.02, 6.40.03, 7.3.03, 7.3.06, 7.3.07, 7.3.08, 7.3.09, 7.3.10, 7.3.11, 7.3.12, 7.3.13, 7.3.14, 7.3.15, 7.3.16, 7.3.17, 7.3.18, 7.3.19, 7.3.20, 7.3.21, 7.3.22, 7.3.23, 7.3.24, 7.3.25, 7.3.26, 7.3.27, 8.3.03, 8.3.06, 8.3.07, 8.3.08, 8.3.09, 8.3.10, 8.3.11, 8.3.12, 8.3.13, 8.3.14, 8.3.15, 8.3.16, 8.3.17, 8.3.18, 8.3.19, 8.3.20, 8.3.21, 8.3.22, 8.3.23, 8.3.24, 8.3.25, 8.3.26, 8.3.27</v>
       </c>
       <c r="I81" s="357" t="str">
         <v xml:space="preserve">The requirement "all information is accurate and without omission"
@@ -37724,7 +37724,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:F1204"/>
+  <dimension ref="A1:F1203"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -41370,7 +41370,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="356" customFormat="1" ht="290" customHeight="1">
+    <row r="182" spans="1:6" s="356" customFormat="1" ht="330" customHeight="1">
       <c r="A182" s="357" t="str">
         <v/>
       </c>
@@ -41391,7 +41391,6 @@
 * Patient.address
 * Patient.address.city
 * Patient.address.line
-* Patient.address.period
 * Patient.address.postalCode
 * Patient.address.state
 * Patient.birthDate
@@ -41410,7 +41409,10 @@
 * Patient.telecom
 * Patient.telecom.system
 * Patient.telecom.use
-* Patient.telecom.value</v>
+* Patient.telecom.value
+For ONC USCDI requirements, each Patient must support the following additional elements:
+* Patient.address.period.end or Patient.address.use
+* Patient.name.period.end or Patient.name.use</v>
       </c>
       <c r="F182" s="357" t="str">
         <v>DAT-PAT-2</v>
@@ -47185,7 +47187,6 @@
 * Patient.address
 * Patient.address.city
 * Patient.address.line
-* Patient.address.period
 * Patient.address.postalCode
 * Patient.address.state
 * Patient.birthDate
@@ -47197,12 +47198,13 @@
 * Patient.name.family
 * Patient.name.given
 For ONC USCDI requirements, each Patient must support the following additional elements:
+* Patient.address.period.end or Patient.address.use
 * Patient.communication
 * Patient.communication.language
 * Patient.extension:birthsex
 * Patient.extension:ethnicity
 * Patient.extension:race
-* Patient.name.period.end
+* Patient.name.period.end or Patient.name.use
 * Patient.name.suffix
 * Patient.telecom
 * Patient.telecom.system
@@ -53474,7 +53476,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="695" spans="1:6" s="356" customFormat="1" ht="370" customHeight="1">
+    <row r="695" spans="1:6" s="356" customFormat="1" ht="350" customHeight="1">
       <c r="A695" s="357" t="str">
         <v/>
       </c>
@@ -53495,7 +53497,6 @@
 * Patient.address
 * Patient.address.city
 * Patient.address.line
-* Patient.address.period
 * Patient.address.postalCode
 * Patient.address.state
 * Patient.birthDate
@@ -53507,16 +53508,15 @@
 * Patient.name.family
 * Patient.name.given
 For ONC USCDI requirements, each Patient must support the following additional elements:
-* Patient.address.use
+* Patient.address.period.end or Patient.address.use
 * Patient.communication
 * Patient.communication.language
 * Patient.extension:birthsex
 * Patient.extension:ethnicity
 * Patient.extension:genderIdentity
 * Patient.extension:race
-* Patient.name.period.end
+* Patient.name.period.end or Patient.name.use
 * Patient.name.suffix
-* Patient.name.use
 * Patient.telecom
 * Patient.telecom.system
 * Patient.telecom.use
@@ -64983,7 +64983,7 @@
         <v>DAT-PAT-2</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" s="356" customFormat="1" ht="70" customHeight="1">
+    <row r="1199" spans="1:6" s="356" customFormat="1" ht="90" customHeight="1">
       <c r="A1199" s="357" t="str">
         <v/>
       </c>
@@ -64991,37 +64991,12 @@
         <v/>
       </c>
       <c r="C1199" s="357" t="str">
-        <v>9.10.12</v>
+        <v>9.10.13</v>
       </c>
       <c r="D1199" s="357" t="str">
-        <v>Health IT developer demonstrates support for the Patient Demographics Previous Name USCDI v1 element.</v>
+        <v>Health IT developer demonstrates support for issuing refresh tokens to native applications.</v>
       </c>
       <c r="E1199" s="357" t="str">
-        <v xml:space="preserve">ONC certification criteria states that all USCDI v1 data classes and
-elements need to be supported, including Patient Demographics - Previous
-Name. However, US Core v3.1.1 does not tag the relevant element
-(Patient.name.period) as MUST SUPPORT. The Health IT developer must
-demonstrate support for this USCDI v1 element as described in the US
-Core Patient Profile implementation guidance.</v>
-      </c>
-      <c r="F1199" s="357" t="str">
-        <v>DAT-PAT-2</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:6" s="356" customFormat="1" ht="90" customHeight="1">
-      <c r="A1200" s="357" t="str">
-        <v/>
-      </c>
-      <c r="B1200" s="357" t="str">
-        <v/>
-      </c>
-      <c r="C1200" s="357" t="str">
-        <v>9.10.13</v>
-      </c>
-      <c r="D1200" s="357" t="str">
-        <v>Health IT developer demonstrates support for issuing refresh tokens to native applications.</v>
-      </c>
-      <c r="E1200" s="357" t="str">
         <v xml:space="preserve">The health IT developer demonstrates the ability of the Health IT Module
 to grant a refresh token valid for a period of no less than three months
 to native applications capable of storing a refresh token.
@@ -65030,70 +65005,70 @@
 OAuth 2.0 authorization flow to ensure authorization is sufficiently
 secure for native applications.</v>
       </c>
-      <c r="F1200" s="357" t="str">
+      <c r="F1199" s="357" t="str">
         <v>AUT-PAT-21</v>
       </c>
     </row>
-    <row r="1201" spans="1:6" s="356" customFormat="1" ht="40" customHeight="1">
-      <c r="A1201" s="357" t="str">
-        <v/>
-      </c>
-      <c r="B1201" s="357" t="str">
-        <v/>
-      </c>
-      <c r="C1201" s="357" t="str">
+    <row r="1200" spans="1:6" s="356" customFormat="1" ht="40" customHeight="1">
+      <c r="A1200" s="357" t="str">
+        <v/>
+      </c>
+      <c r="B1200" s="357" t="str">
+        <v/>
+      </c>
+      <c r="C1200" s="357" t="str">
         <v>9.10.14</v>
       </c>
-      <c r="D1201" s="357" t="str">
+      <c r="D1200" s="357" t="str">
         <v>Health IT developer demonstrates the public location of its base URLs.</v>
       </c>
-      <c r="E1201" s="357" t="str">
+      <c r="E1200" s="357" t="str">
         <v xml:space="preserve">To fulfill the API Maintenance of Certification requirement at §
 170.404(b)(2), the health IT developer demonstrates the public location
 of its certified API technology service base URLs.</v>
       </c>
-      <c r="F1201" s="357" t="str">
+      <c r="F1200" s="357" t="str">
         <v>API-DOC-3</v>
       </c>
     </row>
-    <row r="1202" spans="1:6" s="356" customFormat="1" ht="70" customHeight="1">
-      <c r="A1202" s="357" t="str">
-        <v/>
-      </c>
-      <c r="B1202" s="357" t="str">
-        <v/>
-      </c>
-      <c r="C1202" s="357" t="str">
+    <row r="1201" spans="1:6" s="356" customFormat="1" ht="70" customHeight="1">
+      <c r="A1201" s="357" t="str">
+        <v/>
+      </c>
+      <c r="B1201" s="357" t="str">
+        <v/>
+      </c>
+      <c r="C1201" s="357" t="str">
         <v>9.10.15</v>
       </c>
-      <c r="D1202" s="357" t="str">
+      <c r="D1201" s="357" t="str">
         <v>TLS version 1.2 or above must be enforced</v>
       </c>
-      <c r="E1202" s="357" t="str">
+      <c r="E1201" s="357" t="str">
         <v xml:space="preserve">If TLS connections below version 1.2 have been allowed in any previous
 tests, Health IT developers must document how the Health IT Module
 enforces TLS version 1.2 or above.
 If no TLS connections below version 1.2 have been allowed, no
 documentation is necessary and this test will automatically pass.</v>
       </c>
-      <c r="F1202" s="357" t="str">
+      <c r="F1201" s="357" t="str">
         <v>SEC-CNN-1</v>
       </c>
     </row>
-    <row r="1203" spans="1:6" s="356" customFormat="1" ht="200" customHeight="1">
-      <c r="A1203" s="357" t="str">
-        <v/>
-      </c>
-      <c r="B1203" s="357" t="str">
-        <v/>
-      </c>
-      <c r="C1203" s="357" t="str">
+    <row r="1202" spans="1:6" s="356" customFormat="1" ht="200" customHeight="1">
+      <c r="A1202" s="357" t="str">
+        <v/>
+      </c>
+      <c r="B1202" s="357" t="str">
+        <v/>
+      </c>
+      <c r="C1202" s="357" t="str">
         <v>9.10.16</v>
       </c>
-      <c r="D1203" s="357" t="str">
+      <c r="D1202" s="357" t="str">
         <v>Health IT developer attested that the Health IT Module is capable of issuing refresh tokens valid for a new period of no shorter than three months without requiring re-authentication and re-authorization when a valid refresh token is supplied by the application.</v>
       </c>
-      <c r="E1203" s="357" t="str">
+      <c r="E1202" s="357" t="str">
         <v xml:space="preserve">Applications that are capable of storing a client secret and that have
 received a refresh token must be able to use this refresh token to
 either receive a new refresh token valid for a new period of no less
@@ -65112,24 +65087,24 @@
 issuing an initial refresh token that is valid for at least three
 months.</v>
       </c>
-      <c r="F1203" s="357" t="str">
+      <c r="F1202" s="357" t="str">
         <v>AUT-PAT-22</v>
       </c>
     </row>
-    <row r="1204" spans="1:6" s="356" customFormat="1" ht="130" customHeight="1">
-      <c r="A1204" s="357" t="str">
-        <v/>
-      </c>
-      <c r="B1204" s="357" t="str">
-        <v/>
-      </c>
-      <c r="C1204" s="357" t="str">
+    <row r="1203" spans="1:6" s="356" customFormat="1" ht="130" customHeight="1">
+      <c r="A1203" s="357" t="str">
+        <v/>
+      </c>
+      <c r="B1203" s="357" t="str">
+        <v/>
+      </c>
+      <c r="C1203" s="357" t="str">
         <v>9.10.17</v>
       </c>
-      <c r="D1204" s="357" t="str">
+      <c r="D1203" s="357" t="str">
         <v>Health IT developer attested that the Health IT Module meets the requirements for supporting the `_since` parameter for bulk data exports.</v>
       </c>
-      <c r="E1204" s="357" t="str">
+      <c r="E1203" s="357" t="str">
         <v xml:space="preserve">Resources will be included in the response if their state has changed
 after the supplied time (e.g., if `Resource.meta.lastUpdated` is later
 than the supplied `_since` time). In the case of a Group level export, the
@@ -65143,7 +65118,7 @@
 last updated time, the server MAY include these resources in a response
 irrespective of the _since value supplied by a client.</v>
       </c>
-      <c r="F1204" s="357" t="str">
+      <c r="F1203" s="357" t="str">
         <v/>
       </c>
     </row>

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.7.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.7.1)</v>
       </c>
     </row>
     <row r="2" spans="3:150" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.7.1)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.7.2)</v>
       </c>
     </row>
     <row r="2" spans="3:150" s="3" customFormat="1" ht="20" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.7.2)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.8.0)</v>
       </c>
     </row>
     <row r="2" spans="3:150" s="3" customFormat="1" ht="20" customHeight="1">
@@ -63242,7 +63242,7 @@
     </row>
     <row r="1112" spans="2:2" customFormat="false">
       <c r="B1112" s="0" t="str">
-        <v>9.1: Public Client Standalone Launch with OpenID Connect</v>
+        <v>9.1: SMART Public Client Standalone Launch with OpenID Connect</v>
       </c>
     </row>
     <row r="1113" spans="1:6" s="356" customFormat="1" ht="40" customHeight="1">
@@ -63444,7 +63444,7 @@
     </row>
     <row r="1122" spans="2:2" customFormat="false">
       <c r="B1122" s="0" t="str">
-        <v>9.2: Public Client Standalone Launch with OpenID Connect</v>
+        <v>9.2: SMART Public Client Standalone Launch with OpenID Connect</v>
       </c>
     </row>
     <row r="1123" spans="1:6" s="356" customFormat="1" ht="40" customHeight="1">

--- a/onc_certification_g10_matrix.xlsx
+++ b/onc_certification_g10_matrix.xlsx
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="B1" s="3" t="str">
-        <v>ONC Certification (g)(10) Test Kit (v3.8.0)</v>
+        <v>ONC Certification (g)(10) Test Kit (v3.8.1)</v>
       </c>
     </row>
     <row r="2" spans="3:150" s="3" customFormat="1" ht="20" customHeight="1">
